--- a/docs/pilot_point_storage_design/PP_Storage_Design.xlsx
+++ b/docs/pilot_point_storage_design/PP_Storage_Design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurora/EclipseWorkspace/Equinox/docs/pilot_point_storage_design/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B0903-6853-CE46-B3C3-3E08C59B86E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40965" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PP Template" sheetId="8" r:id="rId1"/>
@@ -14,33 +20,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ARTIM, Murat</author>
     <author>Murat Artim</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Moved to Input section as spectrum ID.</t>
+          <t>Moved to Input section.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -48,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -58,11 +64,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Removed because it would surely cause confusion when stress teams have to fill this template. Will be merged into a single row 'Description'.</t>
+          <t>Merged into a single row 'Description'.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="1">
+    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -72,11 +78,53 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Removed because all spectrum related information shall be contained in the spectra table. If this the Mission profile plot, then it is added to Reference calculation table.</t>
+          <t>Removed because all spectrum related information shall be contained in the spectra table. If this refers to the Mission profile plot, then it is added to Reference calculation output table.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C85" authorId="1">
+    <comment ref="C52" authorId="1" shapeId="0" xr:uid="{6544AD29-9F33-B44B-B89A-CFB07C4225B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Must be consistent with AC, program, section</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="1" shapeId="0" xr:uid="{BF9E396F-A02C-0343-92C0-2349F348A250}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Must be consistent with spectrum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="1" shapeId="0" xr:uid="{7CE9ACF0-B1E5-594A-9A9D-1D4ABB4B75E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In case the parent spectrum also contains a multiplication table, this would multiply it.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="269">
   <si>
     <t>Spectrum Name</t>
   </si>
@@ -799,9 +847,6 @@
     <t>FLIGHT_DAM_CONT_PLOT_URL</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>DSG_CONSIDERED</t>
   </si>
   <si>
@@ -854,12 +899,63 @@
   </si>
   <si>
     <t>FK(SPECTRA)</t>
+  </si>
+  <si>
+    <t>MULT_TABLE_URL</t>
+  </si>
+  <si>
+    <t>Multiplication table file</t>
+  </si>
+  <si>
+    <t>Stress resolution method</t>
+  </si>
+  <si>
+    <t>FAT_RESOLVE_METHOD</t>
+  </si>
+  <si>
+    <t>PROP_RESOLVE_METHOD</t>
+  </si>
+  <si>
+    <t>URL to output HTML file</t>
+  </si>
+  <si>
+    <t>URL to mission profile plot</t>
+  </si>
+  <si>
+    <t>URL to loadcase damage cont. Plot</t>
+  </si>
+  <si>
+    <t>URL to flight damage cont. Plot</t>
+  </si>
+  <si>
+    <t>URL to level crossing plot</t>
+  </si>
+  <si>
+    <t>URL to most occurring flight plot</t>
+  </si>
+  <si>
+    <t>URL to highest stress flight plot</t>
+  </si>
+  <si>
+    <t>URL to longest flight plot</t>
+  </si>
+  <si>
+    <t>MOST_OCCURRING_TF_PLOT_URL</t>
+  </si>
+  <si>
+    <t>HIGHEST_STRESS_TF_PLOT_URL</t>
+  </si>
+  <si>
+    <t>LONGEST_TF_PLOT_URL</t>
+  </si>
+  <si>
+    <t>Pilot Point Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,12 +1092,12 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1126,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="34">
     <border>
@@ -1460,7 +1562,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1530,486 +1632,492 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2054,6 +2162,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2117,7 +2231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2150,9 +2264,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2185,6 +2316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2360,449 +2508,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:N139"/>
+  <dimension ref="B1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="20" style="23" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="23" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="22" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="37.125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="37.125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="24.875" style="22" customWidth="1"/>
-    <col min="13" max="13" width="28.625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="22" customWidth="1"/>
+    <col min="11" max="11" width="37.1640625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="22" customWidth="1"/>
     <col min="15" max="16384" width="11" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="163" t="s">
+      <c r="G2" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="165"/>
+      <c r="I2" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="153"/>
+      <c r="I3" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="136"/>
+      <c r="C4" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="181"/>
+      <c r="G4" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="148"/>
+      <c r="I4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="182" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="147" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="148"/>
-      <c r="I3" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="115"/>
-      <c r="C4" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="174" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="175"/>
-      <c r="I4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="32" t="s">
+      <c r="M4" s="59"/>
+      <c r="N4" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="115"/>
-      <c r="C5" s="72" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="136"/>
+      <c r="C5" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="183"/>
-      <c r="G5" s="141" t="s">
+      <c r="F5" s="181"/>
+      <c r="G5" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="57"/>
+      <c r="L5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="59"/>
       <c r="N5" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="72" t="s">
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="136"/>
+      <c r="C6" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="141" t="s">
+      <c r="F6" s="181"/>
+      <c r="G6" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="57"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115"/>
-      <c r="C7" s="72" t="s">
+    <row r="7" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="136"/>
+      <c r="C7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="183"/>
-      <c r="G7" s="141" t="s">
+      <c r="F7" s="181"/>
+      <c r="G7" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="57"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="115"/>
-      <c r="C8" s="72" t="s">
+    <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="136"/>
+      <c r="C8" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="183"/>
-      <c r="G8" s="141" t="s">
+      <c r="F8" s="181"/>
+      <c r="G8" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="57"/>
+        <v>243</v>
+      </c>
+      <c r="M8" s="59"/>
       <c r="N8" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
-      <c r="C9" s="91" t="s">
+    <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="136"/>
+      <c r="C9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="94"/>
+      <c r="E9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="183"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
-      <c r="C10" s="91" t="s">
+      <c r="F9" s="181"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="136"/>
+      <c r="C10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="115"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="43" t="s">
+      <c r="F10" s="181"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="136"/>
+      <c r="C11" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="43" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="N11" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="115"/>
-      <c r="C12" s="72" t="s">
+    <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="136"/>
+      <c r="C12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="183"/>
-      <c r="G12" s="141" t="s">
+      <c r="F12" s="181"/>
+      <c r="G12" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="73"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="6" t="s">
         <v>222</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
-      <c r="C13" s="91" t="s">
+    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="136"/>
+      <c r="C13" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="183"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="115"/>
-      <c r="C14" s="72" t="s">
+      <c r="F13" s="181"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="136"/>
+      <c r="C14" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="183"/>
-      <c r="G14" s="141" t="s">
+      <c r="F14" s="181"/>
+      <c r="G14" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="57"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="115"/>
-      <c r="C15" s="72" t="s">
+    <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="136"/>
+      <c r="C15" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="183"/>
-      <c r="G15" s="141" t="s">
+      <c r="F15" s="181"/>
+      <c r="G15" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="73"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="57"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="115"/>
-      <c r="C16" s="72" t="s">
+    <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="136"/>
+      <c r="C16" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="141" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="73"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="57"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="115"/>
-      <c r="C17" s="72" t="s">
+    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="B17" s="136"/>
+      <c r="C17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="183"/>
-      <c r="G17" s="141" t="s">
+      <c r="F17" s="181"/>
+      <c r="G17" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="73"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="7" t="s">
         <v>222</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="57"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="115"/>
-      <c r="C18" s="91" t="s">
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="136"/>
+      <c r="C18" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="183"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
-      <c r="C19" s="120" t="s">
+      <c r="F18" s="181"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="137"/>
+      <c r="C19" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="121"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="184"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="182"/>
+      <c r="G19" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="121"/>
+      <c r="H19" s="142"/>
       <c r="I19" s="8" t="s">
         <v>220</v>
       </c>
@@ -2811,2914 +2963,3034 @@
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="117" t="s">
+    <row r="20" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="188" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="147" t="s">
+      <c r="F20" s="190" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="148"/>
-      <c r="I20" s="34" t="s">
+      <c r="H20" s="153"/>
+      <c r="I20" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" s="34" t="s">
+      <c r="J20" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="139"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="56"/>
+      <c r="I21" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="118"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M21" s="51"/>
-      <c r="N21" s="34" t="s">
+      <c r="L21" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" s="53"/>
+      <c r="N21" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="118"/>
-      <c r="C22" s="160" t="s">
+    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="139"/>
+      <c r="C22" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="189"/>
-      <c r="G22" s="162" t="s">
+      <c r="F22" s="191"/>
+      <c r="G22" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="161"/>
+      <c r="H22" s="146"/>
       <c r="I22" s="9" t="s">
         <v>220</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="53"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="118"/>
-      <c r="C23" s="76" t="s">
+    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="139"/>
+      <c r="C23" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="191" t="s">
+      <c r="F23" s="191"/>
+      <c r="G23" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="77"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
-      <c r="C24" s="76" t="s">
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="139"/>
+      <c r="C24" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="189"/>
-      <c r="G24" s="191" t="s">
+      <c r="F24" s="191"/>
+      <c r="G24" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="77"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="118"/>
-      <c r="C25" s="76" t="s">
+    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="139"/>
+      <c r="C25" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="10">
         <v>1</v>
       </c>
-      <c r="F25" s="189"/>
-      <c r="G25" s="191" t="s">
+      <c r="F25" s="191"/>
+      <c r="G25" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="77"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="51"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
-      <c r="C26" s="76" t="s">
+    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="139"/>
+      <c r="C26" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="189"/>
-      <c r="G26" s="191" t="s">
+      <c r="F26" s="191"/>
+      <c r="G26" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="118"/>
-      <c r="C27" s="76" t="s">
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="139"/>
+      <c r="C27" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="10">
         <v>1</v>
       </c>
-      <c r="F27" s="189"/>
-      <c r="G27" s="191" t="s">
+      <c r="F27" s="191"/>
+      <c r="G27" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="118"/>
-      <c r="C28" s="76" t="s">
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="139"/>
+      <c r="C28" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="189"/>
-      <c r="G28" s="191" t="s">
+      <c r="F28" s="191"/>
+      <c r="G28" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="77"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="53"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="118"/>
-      <c r="C29" s="76" t="s">
+    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="139"/>
+      <c r="C29" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="189"/>
-      <c r="G29" s="191" t="s">
+      <c r="F29" s="191"/>
+      <c r="G29" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="77"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="51"/>
+      <c r="M29" s="53"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
-      <c r="C30" s="76" t="s">
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="139"/>
+      <c r="C30" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="77"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="189"/>
-      <c r="G30" s="191" t="s">
+      <c r="F30" s="191"/>
+      <c r="G30" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="51"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="118"/>
-      <c r="C31" s="76" t="s">
+    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="139"/>
+      <c r="C31" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="77"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="189"/>
-      <c r="G31" s="191" t="s">
+      <c r="F31" s="191"/>
+      <c r="G31" s="193" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="77"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="10" t="s">
         <v>224</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="51"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="118"/>
-      <c r="C32" s="76" t="s">
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="139"/>
+      <c r="C32" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="77"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="189"/>
-      <c r="G32" s="191" t="s">
+      <c r="F32" s="191"/>
+      <c r="G32" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="51"/>
+      <c r="M32" s="53"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="119"/>
-      <c r="C33" s="84" t="s">
+    <row r="33" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="140"/>
+      <c r="C33" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="85"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="190"/>
-      <c r="G33" s="192" t="s">
+      <c r="F33" s="192"/>
+      <c r="G33" s="194" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="85"/>
+      <c r="H33" s="87"/>
       <c r="I33" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="52"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
+    <row r="34" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="177" t="s">
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="147" t="s">
+      <c r="G34" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="148"/>
-      <c r="I34" s="33" t="s">
+      <c r="H34" s="153"/>
+      <c r="I34" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J34" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" s="33" t="s">
+      <c r="J34" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="35"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="35"/>
+    </row>
+    <row r="35" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="97"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="56"/>
+      <c r="I35" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="37"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="93"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="38" t="s">
+      <c r="L35" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="53"/>
+      <c r="N35" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="185" t="s">
+    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="97"/>
+      <c r="C36" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="186"/>
-      <c r="E36" s="35" t="s">
+      <c r="D36" s="188"/>
+      <c r="E36" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="177"/>
-      <c r="G36" s="187" t="s">
+      <c r="F36" s="185"/>
+      <c r="G36" s="189" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="186"/>
-      <c r="I36" s="35" t="s">
+      <c r="H36" s="188"/>
+      <c r="I36" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="35"/>
-    </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
-      <c r="C37" s="86" t="s">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="97"/>
+      <c r="C37" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="177"/>
-      <c r="G37" s="179" t="s">
+      <c r="F37" s="185"/>
+      <c r="G37" s="177" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="87"/>
+      <c r="H37" s="89"/>
       <c r="I37" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="51"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
-      <c r="C38" s="86" t="s">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="97"/>
+      <c r="C38" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="87"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="177"/>
-      <c r="G38" s="179" t="s">
+      <c r="F38" s="185"/>
+      <c r="G38" s="177" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="87"/>
+      <c r="H38" s="89"/>
       <c r="I38" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="53"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="93"/>
-      <c r="C39" s="89" t="s">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="97"/>
+      <c r="C39" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="90"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="177"/>
-      <c r="G39" s="180" t="s">
+      <c r="F39" s="185"/>
+      <c r="G39" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="90"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="51"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="93"/>
-      <c r="C40" s="89" t="s">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="97"/>
+      <c r="C40" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="90"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="177"/>
-      <c r="G40" s="180" t="s">
+      <c r="F40" s="185"/>
+      <c r="G40" s="178" t="s">
         <v>161</v>
       </c>
-      <c r="H40" s="90"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="12" t="s">
         <v>222</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="51"/>
+      <c r="M40" s="53"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="93"/>
-      <c r="C41" s="86" t="s">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="97"/>
+      <c r="C41" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="87"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="177"/>
-      <c r="G41" s="179" t="s">
+      <c r="F41" s="185"/>
+      <c r="G41" s="177" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="87"/>
+      <c r="H41" s="89"/>
       <c r="I41" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="51"/>
+      <c r="M41" s="53"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="93"/>
-      <c r="C42" s="86" t="s">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="97"/>
+      <c r="C42" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="87"/>
+      <c r="D42" s="89"/>
       <c r="E42" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="177"/>
-      <c r="G42" s="179" t="s">
+      <c r="F42" s="185"/>
+      <c r="G42" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="87"/>
+      <c r="H42" s="89"/>
       <c r="I42" s="12" t="s">
         <v>221</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="53"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="94"/>
-      <c r="C43" s="112" t="s">
+    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="98"/>
+      <c r="C43" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="113"/>
+      <c r="D43" s="100"/>
       <c r="E43" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="178"/>
-      <c r="G43" s="181" t="s">
+      <c r="F43" s="186"/>
+      <c r="G43" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="100"/>
       <c r="I43" s="13" t="s">
         <v>221</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
-      <c r="M43" s="52"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="124" t="s">
+    <row r="44" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="150" t="s">
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="147" t="s">
+      <c r="G44" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="148"/>
-      <c r="I44" s="33" t="s">
+      <c r="H44" s="153"/>
+      <c r="I44" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J44" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K44" s="33" t="s">
+      <c r="J44" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="35"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="35"/>
+    </row>
+    <row r="45" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="102"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="56"/>
+      <c r="I45" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="37"/>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="125"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M45" s="51"/>
-      <c r="N45" s="38" t="s">
+      <c r="L45" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M45" s="53"/>
+      <c r="N45" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="125"/>
-      <c r="C46" s="139" t="s">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="102"/>
+      <c r="C46" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="157" t="s">
+      <c r="D46" s="119"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="140"/>
-      <c r="I46" s="39" t="s">
+      <c r="H46" s="119"/>
+      <c r="I46" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="39"/>
-    </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="125"/>
-      <c r="C47" s="133" t="s">
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="102"/>
+      <c r="C47" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="134"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="153" t="s">
+      <c r="F47" s="156"/>
+      <c r="G47" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="134"/>
+      <c r="H47" s="111"/>
       <c r="I47" s="14" t="s">
         <v>220</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
-      <c r="M47" s="51"/>
+      <c r="M47" s="53"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="125"/>
-      <c r="C48" s="135" t="s">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="102"/>
+      <c r="C48" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="136"/>
+      <c r="D48" s="113"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="154" t="s">
+      <c r="F48" s="156"/>
+      <c r="G48" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="136"/>
+      <c r="H48" s="113"/>
       <c r="I48" s="14" t="s">
         <v>222</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-      <c r="M48" s="51"/>
+      <c r="M48" s="53"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="126"/>
-      <c r="C49" s="74" t="s">
+    <row r="49" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="103"/>
+      <c r="C49" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="155" t="s">
+      <c r="F49" s="157"/>
+      <c r="G49" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="75"/>
+      <c r="H49" s="77"/>
       <c r="I49" s="15" t="s">
         <v>222</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="52"/>
+      <c r="M49" s="54"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="130" t="s">
+    <row r="50" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="144" t="s">
+      <c r="C50" s="202"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="147" t="s">
+      <c r="G50" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="148"/>
-      <c r="I50" s="33" t="s">
+      <c r="H50" s="153"/>
+      <c r="I50" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J50" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K50" s="33" t="s">
+      <c r="J50" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" s="35"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="108"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="56"/>
+      <c r="I51" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J51" s="36"/>
+      <c r="K51" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="L50" s="37"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="37"/>
-    </row>
-    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="131"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="38" t="s">
+      <c r="L51" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M51" s="53"/>
+      <c r="N51" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B52" s="108"/>
+      <c r="C52" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="150"/>
+      <c r="G52" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="H52" s="56"/>
+      <c r="I52" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="L51" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M51" s="51"/>
-      <c r="N51" s="38" t="s">
+      <c r="J52" s="32"/>
+      <c r="K52" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L52" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M52" s="53"/>
+      <c r="N52" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="131"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="54"/>
-      <c r="I52" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M52" s="51"/>
-      <c r="N52" s="34" t="s">
+    <row r="53" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B53" s="108"/>
+      <c r="C53" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="150"/>
+      <c r="G53" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="56"/>
+      <c r="I53" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M53" s="53"/>
+      <c r="N53" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="131"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="54"/>
-      <c r="I53" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="M53" s="51"/>
-      <c r="N53" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="131"/>
-      <c r="C54" s="137" t="s">
+    <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="108"/>
+      <c r="C54" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="138"/>
+      <c r="D54" s="115"/>
       <c r="E54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="149" t="s">
+      <c r="F54" s="150"/>
+      <c r="G54" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="H54" s="138"/>
+      <c r="H54" s="115"/>
       <c r="I54" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M54" s="51"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="53"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="131"/>
-      <c r="C55" s="137" t="s">
+    <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="108"/>
+      <c r="C55" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="138"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="145"/>
-      <c r="G55" s="149" t="s">
+      <c r="F55" s="150"/>
+      <c r="G55" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="H55" s="138"/>
+      <c r="H55" s="115"/>
       <c r="I55" s="2" t="s">
         <v>222</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M55" s="51"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="53"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="131"/>
-      <c r="C56" s="127" t="s">
+    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="108"/>
+      <c r="C56" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H56" s="50"/>
+      <c r="I56" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="48"/>
+    </row>
+    <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="108"/>
+      <c r="C57" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="145"/>
-      <c r="G56" s="158" t="s">
+      <c r="F57" s="150"/>
+      <c r="G57" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="159"/>
-      <c r="I56" s="3" t="s">
+      <c r="H57" s="164"/>
+      <c r="I57" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M56" s="51"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="131"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="145"/>
-      <c r="G57" s="158" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" s="159"/>
-      <c r="I57" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M57" s="51"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="53"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="131"/>
-      <c r="C58" s="128"/>
+    <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="108"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="145"/>
-      <c r="G58" s="158" t="s">
-        <v>175</v>
-      </c>
-      <c r="H58" s="159"/>
+        <v>108</v>
+      </c>
+      <c r="F58" s="150"/>
+      <c r="G58" s="163" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" s="164"/>
       <c r="I58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="51"/>
+      <c r="M58" s="53"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="131"/>
-      <c r="C59" s="128"/>
+    <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="108"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="145"/>
-      <c r="G59" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="H59" s="159"/>
+        <v>109</v>
+      </c>
+      <c r="F59" s="150"/>
+      <c r="G59" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="164"/>
       <c r="I59" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M59" s="51"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="53"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="131"/>
-      <c r="C60" s="128"/>
+    <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="108"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" s="145"/>
-      <c r="G60" s="158" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="159"/>
+        <v>110</v>
+      </c>
+      <c r="F60" s="150"/>
+      <c r="G60" s="163" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" s="164"/>
       <c r="I60" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="51"/>
+      <c r="M60" s="53"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="131"/>
-      <c r="C61" s="128"/>
+    <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="108"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="145"/>
-      <c r="G61" s="158" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="159"/>
+        <v>111</v>
+      </c>
+      <c r="F61" s="150"/>
+      <c r="G61" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="164"/>
       <c r="I61" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M61" s="51"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="53"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="131"/>
-      <c r="C62" s="128"/>
+    <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="108"/>
+      <c r="C62" s="105"/>
       <c r="D62" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="145"/>
-      <c r="G62" s="158" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" s="159"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="163" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="164"/>
       <c r="I62" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M62" s="51"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="53"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="131"/>
-      <c r="C63" s="128"/>
+    <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="108"/>
+      <c r="C63" s="105"/>
       <c r="D63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="145"/>
-      <c r="G63" s="158" t="s">
-        <v>177</v>
-      </c>
-      <c r="H63" s="159"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="164"/>
       <c r="I63" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M63" s="51"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="53"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="131"/>
-      <c r="C64" s="128"/>
+    <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="108"/>
+      <c r="C64" s="105"/>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="145"/>
-      <c r="G64" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="159"/>
+      <c r="F64" s="150"/>
+      <c r="G64" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="164"/>
       <c r="I64" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M64" s="51"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="53"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="131"/>
-      <c r="C65" s="128"/>
+    <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="108"/>
+      <c r="C65" s="105"/>
       <c r="D65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="145"/>
-      <c r="G65" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="H65" s="159"/>
+        <v>84</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="150"/>
+      <c r="G65" s="163" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="164"/>
       <c r="I65" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M65" s="51"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="53"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="131"/>
-      <c r="C66" s="129"/>
+    <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="108"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F66" s="145"/>
-      <c r="G66" s="158" t="s">
-        <v>180</v>
-      </c>
-      <c r="H66" s="159"/>
+        <v>64</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="150"/>
+      <c r="G66" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="164"/>
       <c r="I66" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="51"/>
+      <c r="M66" s="53"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="131"/>
-      <c r="C67" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" s="145"/>
-      <c r="G67" s="158" t="s">
-        <v>181</v>
-      </c>
-      <c r="H67" s="159"/>
-      <c r="I67" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M67" s="51"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="131"/>
-      <c r="C68" s="128"/>
+    <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="108"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="H67" s="50"/>
+      <c r="I67" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="47"/>
+    </row>
+    <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="108"/>
+      <c r="C68" s="106"/>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="145"/>
-      <c r="G68" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="H68" s="159"/>
+        <v>112</v>
+      </c>
+      <c r="F68" s="150"/>
+      <c r="G68" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="H68" s="164"/>
       <c r="I68" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M68" s="51"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="53"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="131"/>
-      <c r="C69" s="128"/>
+    <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="108"/>
+      <c r="C69" s="104" t="s">
+        <v>59</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="145"/>
-      <c r="G69" s="158" t="s">
-        <v>183</v>
-      </c>
-      <c r="H69" s="159"/>
+        <v>113</v>
+      </c>
+      <c r="F69" s="150"/>
+      <c r="G69" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="H69" s="164"/>
       <c r="I69" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M69" s="51"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="53"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="131"/>
-      <c r="C70" s="128"/>
+    <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="108"/>
+      <c r="C70" s="105"/>
       <c r="D70" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="145"/>
-      <c r="G70" s="158" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="159"/>
+        <v>114</v>
+      </c>
+      <c r="F70" s="150"/>
+      <c r="G70" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" s="164"/>
       <c r="I70" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M70" s="51"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="53"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="131"/>
-      <c r="C71" s="128"/>
+    <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="108"/>
+      <c r="C71" s="105"/>
       <c r="D71" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="145"/>
-      <c r="G71" s="158" t="s">
-        <v>185</v>
-      </c>
-      <c r="H71" s="159"/>
+        <v>115</v>
+      </c>
+      <c r="F71" s="150"/>
+      <c r="G71" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="164"/>
       <c r="I71" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M71" s="51"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="53"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="131"/>
-      <c r="C72" s="128"/>
+    <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="108"/>
+      <c r="C72" s="105"/>
       <c r="D72" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F72" s="145"/>
-      <c r="G72" s="158" t="s">
-        <v>186</v>
-      </c>
-      <c r="H72" s="159"/>
+        <v>110</v>
+      </c>
+      <c r="F72" s="150"/>
+      <c r="G72" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="164"/>
       <c r="I72" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="51"/>
+      <c r="M72" s="53"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="131"/>
-      <c r="C73" s="128"/>
+    <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="108"/>
+      <c r="C73" s="105"/>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="145"/>
-      <c r="G73" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="159"/>
+        <v>110</v>
+      </c>
+      <c r="F73" s="150"/>
+      <c r="G73" s="163" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="164"/>
       <c r="I73" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M73" s="51"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="53"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="131"/>
-      <c r="C74" s="128"/>
+    <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="108"/>
+      <c r="C74" s="105"/>
       <c r="D74" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="145"/>
-      <c r="G74" s="158" t="s">
-        <v>188</v>
-      </c>
-      <c r="H74" s="159"/>
+        <v>111</v>
+      </c>
+      <c r="F74" s="150"/>
+      <c r="G74" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="164"/>
       <c r="I74" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M74" s="51"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="53"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="131"/>
-      <c r="C75" s="128"/>
+    <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="108"/>
+      <c r="C75" s="105"/>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="145"/>
-      <c r="G75" s="158" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" s="159"/>
+      <c r="F75" s="150"/>
+      <c r="G75" s="163" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75" s="164"/>
       <c r="I75" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M75" s="51"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="53"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="131"/>
-      <c r="C76" s="128"/>
+    <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="108"/>
+      <c r="C76" s="105"/>
       <c r="D76" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="145"/>
-      <c r="G76" s="158" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" s="159"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="163" t="s">
+        <v>188</v>
+      </c>
+      <c r="H76" s="164"/>
       <c r="I76" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M76" s="51"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="53"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="131"/>
-      <c r="C77" s="128"/>
+    <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="108"/>
+      <c r="C77" s="105"/>
       <c r="D77" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="145"/>
-      <c r="G77" s="158" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="159"/>
+        <v>81</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="150"/>
+      <c r="G77" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="164"/>
       <c r="I77" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M77" s="51"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="53"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="131"/>
-      <c r="C78" s="129"/>
+    <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="108"/>
+      <c r="C78" s="105"/>
       <c r="D78" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="145"/>
-      <c r="G78" s="158" t="s">
-        <v>192</v>
-      </c>
-      <c r="H78" s="159"/>
+        <v>121</v>
+      </c>
+      <c r="F78" s="150"/>
+      <c r="G78" s="163" t="s">
+        <v>190</v>
+      </c>
+      <c r="H78" s="164"/>
       <c r="I78" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="51"/>
+      <c r="M78" s="53"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="131"/>
-      <c r="C79" s="80" t="s">
+    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="108"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="150"/>
+      <c r="G79" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" s="164"/>
+      <c r="I79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="108"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" s="47"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="H80" s="50"/>
+      <c r="I80" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="47"/>
+    </row>
+    <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="108"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="150"/>
+      <c r="G81" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="164"/>
+      <c r="I81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="108"/>
+      <c r="C82" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="81"/>
-      <c r="E79" s="4" t="s">
+      <c r="D82" s="83"/>
+      <c r="E82" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F79" s="145"/>
-      <c r="G79" s="194" t="s">
+      <c r="F82" s="150"/>
+      <c r="G82" s="196" t="s">
         <v>193</v>
       </c>
-      <c r="H79" s="81"/>
-      <c r="I79" s="4" t="s">
+      <c r="H82" s="83"/>
+      <c r="I82" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M79" s="51"/>
-      <c r="N79" s="4"/>
-    </row>
-    <row r="80" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="132"/>
-      <c r="C80" s="82" t="s">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="109"/>
+      <c r="C83" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="83"/>
-      <c r="E80" s="5" t="s">
+      <c r="D83" s="85"/>
+      <c r="E83" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="146"/>
-      <c r="G80" s="195" t="s">
+      <c r="F83" s="151"/>
+      <c r="G83" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="H80" s="83"/>
-      <c r="I80" s="5" t="s">
+      <c r="H83" s="85"/>
+      <c r="I83" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M80" s="52"/>
-      <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="97" t="s">
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="171" t="s">
+      <c r="C84" s="80"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="G81" s="147" t="s">
+      <c r="G84" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="148"/>
-      <c r="I81" s="33" t="s">
+      <c r="H84" s="153"/>
+      <c r="I84" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J81" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K81" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="L81" s="37"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="37"/>
-    </row>
-    <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="98"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="172"/>
-      <c r="G82" s="156" t="s">
+      <c r="J84" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="35"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="35"/>
+    </row>
+    <row r="85" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" s="123"/>
+      <c r="C85" s="116"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="174"/>
+      <c r="G85" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="H82" s="54"/>
-      <c r="I82" s="38" t="s">
+      <c r="H85" s="56"/>
+      <c r="I85" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="J82" s="38"/>
-      <c r="K82" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="L82" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M82" s="51"/>
-      <c r="N82" s="38" t="s">
+      <c r="J85" s="36"/>
+      <c r="K85" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M85" s="53"/>
+      <c r="N85" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="98"/>
-      <c r="C83" s="110" t="s">
+    <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="123"/>
+      <c r="C86" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="111"/>
-      <c r="E83" s="16" t="s">
+      <c r="D86" s="134"/>
+      <c r="E86" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F83" s="172"/>
-      <c r="G83" s="193" t="s">
+      <c r="F86" s="174"/>
+      <c r="G86" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="H83" s="111"/>
-      <c r="I83" s="16" t="s">
+      <c r="H86" s="134"/>
+      <c r="I86" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="16"/>
-    </row>
-    <row r="84" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="98"/>
-      <c r="C84" s="59" t="s">
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="123"/>
+      <c r="C87" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="17" t="s">
+      <c r="D87" s="62"/>
+      <c r="E87" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F84" s="172"/>
-      <c r="G84" s="61" t="s">
+      <c r="F87" s="174"/>
+      <c r="G87" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="H84" s="60"/>
-      <c r="I84" s="17" t="s">
+      <c r="H87" s="62"/>
+      <c r="I87" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="17"/>
-    </row>
-    <row r="85" spans="2:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="98"/>
-      <c r="C85" s="59" t="s">
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="53"/>
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="123"/>
+      <c r="C88" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D85" s="60"/>
-      <c r="E85" s="17" t="s">
+      <c r="D88" s="62"/>
+      <c r="E88" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="172"/>
-      <c r="G85" s="68" t="s">
+      <c r="F88" s="174"/>
+      <c r="G88" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="H85" s="69"/>
-      <c r="I85" s="18" t="s">
+      <c r="H88" s="71"/>
+      <c r="I88" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="L85" s="18"/>
-      <c r="M85" s="51"/>
-      <c r="N85" s="18" t="s">
+      <c r="J88" s="18"/>
+      <c r="K88" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="L88" s="18"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="98"/>
-      <c r="C86" s="88" t="s">
+    <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="123"/>
+      <c r="C89" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D89" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E89" s="18">
         <v>256.49799999999999</v>
       </c>
-      <c r="F86" s="172"/>
-      <c r="G86" s="68" t="s">
+      <c r="F89" s="174"/>
+      <c r="G89" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H86" s="69"/>
-      <c r="I86" s="18" t="s">
+      <c r="H89" s="71"/>
+      <c r="I89" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="18"/>
-    </row>
-    <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="98"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="172"/>
-      <c r="G87" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="H87" s="69"/>
-      <c r="I87" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="18"/>
-    </row>
-    <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="98"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F88" s="172"/>
-      <c r="G88" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="H88" s="69"/>
-      <c r="I88" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="18"/>
-    </row>
-    <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="98"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="18">
-        <v>319460</v>
-      </c>
-      <c r="F89" s="172"/>
-      <c r="G89" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="H89" s="69"/>
-      <c r="I89" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
       <c r="L89" s="18"/>
-      <c r="M89" s="51"/>
+      <c r="M89" s="53"/>
       <c r="N89" s="18"/>
     </row>
-    <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="98"/>
-      <c r="C90" s="71"/>
+    <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="123"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="172"/>
-      <c r="G90" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="H90" s="69"/>
+      <c r="F90" s="174"/>
+      <c r="G90" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="71"/>
       <c r="I90" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
-      <c r="M90" s="51"/>
+      <c r="M90" s="53"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="98"/>
-      <c r="C91" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="44"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="172"/>
-      <c r="G91" s="196" t="s">
-        <v>228</v>
-      </c>
-      <c r="H91" s="197"/>
-      <c r="I91" s="45" t="s">
+    <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="123"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="174"/>
+      <c r="G91" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="71"/>
+      <c r="I91" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="18"/>
+    </row>
+    <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="123"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="18">
+        <v>319460</v>
+      </c>
+      <c r="F92" s="174"/>
+      <c r="G92" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="H92" s="71"/>
+      <c r="I92" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="L91" s="45"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="98"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="18">
-        <v>144.71</v>
-      </c>
-      <c r="F92" s="172"/>
-      <c r="G92" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="H92" s="69"/>
-      <c r="I92" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
-      <c r="M92" s="51"/>
+      <c r="M92" s="53"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="98"/>
-      <c r="C93" s="70"/>
+    <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="123"/>
+      <c r="C93" s="73"/>
       <c r="D93" s="19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="172"/>
-      <c r="G93" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="H93" s="69"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93" s="71"/>
       <c r="I93" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
-      <c r="M93" s="51"/>
+      <c r="M93" s="53"/>
       <c r="N93" s="18"/>
     </row>
     <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="98"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" s="172"/>
-      <c r="G94" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="H94" s="69"/>
-      <c r="I94" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="18"/>
-    </row>
-    <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="98"/>
-      <c r="C95" s="70"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="174"/>
+      <c r="G94" s="198" t="s">
+        <v>228</v>
+      </c>
+      <c r="H94" s="199"/>
+      <c r="I94" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="L94" s="43"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="123"/>
+      <c r="C95" s="72"/>
       <c r="D95" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E95" s="18">
-        <v>47470</v>
-      </c>
-      <c r="F95" s="172"/>
-      <c r="G95" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="H95" s="69"/>
+        <v>144.71</v>
+      </c>
+      <c r="F95" s="174"/>
+      <c r="G95" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="71"/>
       <c r="I95" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J95" s="18"/>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
-      <c r="M95" s="51"/>
+      <c r="M95" s="53"/>
       <c r="N95" s="18"/>
     </row>
-    <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="98"/>
-      <c r="C96" s="70"/>
+    <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="123"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F96" s="172"/>
-      <c r="G96" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="H96" s="69"/>
+      <c r="F96" s="174"/>
+      <c r="G96" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H96" s="71"/>
       <c r="I96" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
-      <c r="M96" s="51"/>
+      <c r="M96" s="53"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="98"/>
-      <c r="C97" s="70"/>
+    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="123"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F97" s="172"/>
-      <c r="G97" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="H97" s="69"/>
+      <c r="F97" s="174"/>
+      <c r="G97" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="71"/>
       <c r="I97" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
-      <c r="M97" s="51"/>
+      <c r="M97" s="53"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="98"/>
-      <c r="C98" s="70"/>
+    <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="123"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F98" s="172"/>
-      <c r="G98" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="H98" s="69"/>
+        <v>41</v>
+      </c>
+      <c r="E98" s="18">
+        <v>47470</v>
+      </c>
+      <c r="F98" s="174"/>
+      <c r="G98" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="H98" s="71"/>
       <c r="I98" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
-      <c r="M98" s="51"/>
+      <c r="M98" s="53"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="98"/>
-      <c r="C99" s="71"/>
+    <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="123"/>
+      <c r="C99" s="72"/>
       <c r="D99" s="19" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F99" s="172"/>
-      <c r="G99" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="H99" s="69"/>
+      <c r="F99" s="174"/>
+      <c r="G99" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" s="71"/>
       <c r="I99" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
-      <c r="M99" s="51"/>
+      <c r="M99" s="53"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="98"/>
-      <c r="C100" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D100" s="60"/>
+    <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="123"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="E100" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="172"/>
-      <c r="G100" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="H100" s="60"/>
+      <c r="F100" s="174"/>
+      <c r="G100" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" s="71"/>
       <c r="I100" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
-      <c r="M100" s="51"/>
+      <c r="M100" s="53"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="98"/>
-      <c r="C101" s="59" t="s">
+    <row r="101" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="123"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="174"/>
+      <c r="G101" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" s="71"/>
+      <c r="I101" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="18"/>
+    </row>
+    <row r="102" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="123"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="174"/>
+      <c r="G102" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" s="71"/>
+      <c r="I102" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="18"/>
+    </row>
+    <row r="103" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="123"/>
+      <c r="C103" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" s="62"/>
+      <c r="E103" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" s="174"/>
+      <c r="G103" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H103" s="62"/>
+      <c r="I103" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="53"/>
+      <c r="N103" s="18"/>
+    </row>
+    <row r="104" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="123"/>
+      <c r="C104" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="24">
+      <c r="D104" s="62"/>
+      <c r="E104" s="24">
         <v>63800</v>
       </c>
-      <c r="F101" s="172"/>
-      <c r="G101" s="61" t="s">
+      <c r="F104" s="174"/>
+      <c r="G104" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H101" s="60"/>
-      <c r="I101" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="24"/>
-    </row>
-    <row r="102" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="98"/>
-      <c r="C102" s="59" t="s">
+      <c r="H104" s="62"/>
+      <c r="I104" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="24"/>
+    </row>
+    <row r="105" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="123"/>
+      <c r="C105" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="24">
+      <c r="D105" s="62"/>
+      <c r="E105" s="24">
         <v>23735</v>
       </c>
-      <c r="F102" s="172"/>
-      <c r="G102" s="61" t="s">
+      <c r="F105" s="174"/>
+      <c r="G105" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="H102" s="60"/>
-      <c r="I102" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="24"/>
-    </row>
-    <row r="103" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="98"/>
-      <c r="C103" s="62" t="s">
+      <c r="H105" s="62"/>
+      <c r="I105" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="24"/>
+    </row>
+    <row r="106" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="123"/>
+      <c r="C106" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="16" t="s">
+      <c r="D106" s="65"/>
+      <c r="E106" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F103" s="172"/>
-      <c r="G103" s="64" t="s">
+      <c r="F106" s="174"/>
+      <c r="G106" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="H103" s="63"/>
-      <c r="I103" s="16" t="s">
+      <c r="H106" s="65"/>
+      <c r="I106" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="16"/>
-    </row>
-    <row r="104" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="99"/>
-      <c r="C104" s="65" t="s">
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="16"/>
+    </row>
+    <row r="107" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="124"/>
+      <c r="C107" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="66"/>
-      <c r="E104" s="17" t="s">
+      <c r="D107" s="68"/>
+      <c r="E107" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F104" s="173"/>
-      <c r="G104" s="67" t="s">
+      <c r="F107" s="175"/>
+      <c r="G107" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="H104" s="66"/>
-      <c r="I104" s="17" t="s">
+      <c r="H107" s="68"/>
+      <c r="I107" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="52"/>
-      <c r="N104" s="17"/>
-    </row>
-    <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="105" t="s">
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="17"/>
+    </row>
+    <row r="108" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="C105" s="78"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="166" t="s">
-        <v>248</v>
-      </c>
-      <c r="G105" s="147" t="s">
+      <c r="C108" s="80"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="G108" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H105" s="148"/>
-      <c r="I105" s="33" t="s">
+      <c r="H108" s="153"/>
+      <c r="I108" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J105" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K105" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="L105" s="37"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="37"/>
-    </row>
-    <row r="106" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="106"/>
-      <c r="C106" s="199"/>
-      <c r="D106" s="165"/>
-      <c r="E106" s="40" t="s">
+      <c r="J108" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K108" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="L108" s="35"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="35"/>
+    </row>
+    <row r="109" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="131"/>
+      <c r="C109" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="167"/>
+      <c r="E109" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F106" s="167"/>
-      <c r="G106" s="164" t="s">
+      <c r="F109" s="169"/>
+      <c r="G109" s="166" t="s">
         <v>229</v>
       </c>
-      <c r="H106" s="165"/>
-      <c r="I106" s="40" t="s">
+      <c r="H109" s="167"/>
+      <c r="I109" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="40"/>
-    </row>
-    <row r="107" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="106"/>
-      <c r="C107" s="95"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F107" s="167"/>
-      <c r="G107" s="169" t="s">
-        <v>230</v>
-      </c>
-      <c r="H107" s="96"/>
-      <c r="I107" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="20"/>
-    </row>
-    <row r="108" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="106"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="167"/>
-      <c r="G108" s="198" t="s">
-        <v>232</v>
-      </c>
-      <c r="H108" s="165"/>
-      <c r="I108" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="20"/>
-    </row>
-    <row r="109" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="106"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="167"/>
-      <c r="G109" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="H109" s="165"/>
-      <c r="I109" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="20"/>
-    </row>
-    <row r="110" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="106"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="96"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="38"/>
+    </row>
+    <row r="110" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="131"/>
+      <c r="C110" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" s="121"/>
       <c r="E110" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F110" s="167"/>
-      <c r="G110" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="H110" s="96"/>
+      <c r="F110" s="169"/>
+      <c r="G110" s="171" t="s">
+        <v>230</v>
+      </c>
+      <c r="H110" s="121"/>
       <c r="I110" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
-      <c r="M110" s="52"/>
+      <c r="M110" s="53"/>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="105" t="s">
+    <row r="111" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="131"/>
+      <c r="C111" s="201" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="167"/>
+      <c r="E111" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F111" s="169"/>
+      <c r="G111" s="200" t="s">
+        <v>265</v>
+      </c>
+      <c r="H111" s="167"/>
+      <c r="I111" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="20"/>
+    </row>
+    <row r="112" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="131"/>
+      <c r="C112" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="167"/>
+      <c r="E112" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F112" s="169"/>
+      <c r="G112" s="200" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112" s="167"/>
+      <c r="I112" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="20"/>
+    </row>
+    <row r="113" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="131"/>
+      <c r="C113" s="201" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" s="167"/>
+      <c r="E113" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F113" s="169"/>
+      <c r="G113" s="200" t="s">
+        <v>267</v>
+      </c>
+      <c r="H113" s="167"/>
+      <c r="I113" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="20"/>
+    </row>
+    <row r="114" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="131"/>
+      <c r="C114" s="201" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114" s="167"/>
+      <c r="E114" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" s="169"/>
+      <c r="G114" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="H114" s="167"/>
+      <c r="I114" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="20"/>
+    </row>
+    <row r="115" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="131"/>
+      <c r="C115" s="201" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" s="167"/>
+      <c r="E115" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" s="169"/>
+      <c r="G115" s="200" t="s">
+        <v>233</v>
+      </c>
+      <c r="H115" s="167"/>
+      <c r="I115" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="20"/>
+    </row>
+    <row r="116" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="131"/>
+      <c r="C116" s="201" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" s="167"/>
+      <c r="E116" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" s="169"/>
+      <c r="G116" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="H116" s="121"/>
+      <c r="I116" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="20"/>
+    </row>
+    <row r="117" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" s="130" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="80"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="173" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="78"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="G111" s="147" t="s">
+      <c r="G117" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H111" s="148"/>
-      <c r="I111" s="33" t="s">
+      <c r="H117" s="153"/>
+      <c r="I117" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J111" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K111" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="L111" s="37"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="37"/>
-    </row>
-    <row r="112" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="106"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="172"/>
-      <c r="G112" s="156" t="s">
+      <c r="J117" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K117" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="L117" s="35"/>
+      <c r="M117" s="52"/>
+      <c r="N117" s="35"/>
+    </row>
+    <row r="118" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" s="131"/>
+      <c r="C118" s="116"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="174"/>
+      <c r="G118" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="H112" s="54"/>
-      <c r="I112" s="38" t="s">
+      <c r="H118" s="56"/>
+      <c r="I118" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="L112" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M112" s="51"/>
-      <c r="N112" s="38" t="s">
+      <c r="J118" s="36"/>
+      <c r="K118" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="L118" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M118" s="53"/>
+      <c r="N118" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="106"/>
-      <c r="C113" s="110" t="s">
+    <row r="119" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="131"/>
+      <c r="C119" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="D113" s="111"/>
-      <c r="E113" s="16" t="s">
+      <c r="D119" s="134"/>
+      <c r="E119" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F113" s="172"/>
-      <c r="G113" s="193" t="s">
+      <c r="F119" s="174"/>
+      <c r="G119" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="H113" s="111"/>
-      <c r="I113" s="16" t="s">
+      <c r="H119" s="134"/>
+      <c r="I119" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="16"/>
-    </row>
-    <row r="114" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="106"/>
-      <c r="C114" s="59" t="s">
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="53"/>
+      <c r="N119" s="16"/>
+    </row>
+    <row r="120" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="131"/>
+      <c r="C120" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D114" s="60"/>
-      <c r="E114" s="17" t="s">
+      <c r="D120" s="62"/>
+      <c r="E120" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="172"/>
-      <c r="G114" s="61" t="s">
+      <c r="F120" s="174"/>
+      <c r="G120" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="H114" s="60"/>
-      <c r="I114" s="17" t="s">
+      <c r="H120" s="62"/>
+      <c r="I120" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="17"/>
-    </row>
-    <row r="115" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="106"/>
-      <c r="C115" s="88" t="s">
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="17"/>
+    </row>
+    <row r="121" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="131"/>
+      <c r="C121" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D121" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E121" s="18">
         <v>256.49799999999999</v>
       </c>
-      <c r="F115" s="172"/>
-      <c r="G115" s="68" t="s">
+      <c r="F121" s="174"/>
+      <c r="G121" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H115" s="69"/>
-      <c r="I115" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="51"/>
-      <c r="N115" s="18"/>
-    </row>
-    <row r="116" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="106"/>
-      <c r="C116" s="70"/>
-      <c r="D116" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="172"/>
-      <c r="G116" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="H116" s="69"/>
-      <c r="I116" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="18"/>
-    </row>
-    <row r="117" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="106"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F117" s="172"/>
-      <c r="G117" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="H117" s="69"/>
-      <c r="I117" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="51"/>
-      <c r="N117" s="18"/>
-    </row>
-    <row r="118" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="106"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="18">
-        <v>319460</v>
-      </c>
-      <c r="F118" s="172"/>
-      <c r="G118" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="H118" s="69"/>
-      <c r="I118" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="51"/>
-      <c r="N118" s="18"/>
-    </row>
-    <row r="119" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="106"/>
-      <c r="C119" s="71"/>
-      <c r="D119" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F119" s="172"/>
-      <c r="G119" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="H119" s="69"/>
-      <c r="I119" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="51"/>
-      <c r="N119" s="18"/>
-    </row>
-    <row r="120" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="106"/>
-      <c r="C120" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E120" s="18">
-        <v>144.71</v>
-      </c>
-      <c r="F120" s="172"/>
-      <c r="G120" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="H120" s="69"/>
-      <c r="I120" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="18"/>
-    </row>
-    <row r="121" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="106"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F121" s="172"/>
-      <c r="G121" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="H121" s="69"/>
+      <c r="H121" s="71"/>
       <c r="I121" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
       <c r="L121" s="18"/>
-      <c r="M121" s="51"/>
+      <c r="M121" s="53"/>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="106"/>
-      <c r="C122" s="70"/>
+    <row r="122" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="131"/>
+      <c r="C122" s="72"/>
       <c r="D122" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E122" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F122" s="172"/>
-      <c r="G122" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="H122" s="69"/>
+      <c r="F122" s="174"/>
+      <c r="G122" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H122" s="71"/>
       <c r="I122" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
-      <c r="M122" s="51"/>
+      <c r="M122" s="53"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="106"/>
-      <c r="C123" s="70"/>
+    <row r="123" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="131"/>
+      <c r="C123" s="72"/>
       <c r="D123" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="18">
-        <v>47470</v>
-      </c>
-      <c r="F123" s="172"/>
-      <c r="G123" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="H123" s="69"/>
+        <v>68</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F123" s="174"/>
+      <c r="G123" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="71"/>
       <c r="I123" s="18" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
-      <c r="M123" s="51"/>
+      <c r="M123" s="53"/>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="106"/>
-      <c r="C124" s="70"/>
+    <row r="124" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="131"/>
+      <c r="C124" s="72"/>
       <c r="D124" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F124" s="172"/>
-      <c r="G124" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="H124" s="69"/>
+        <v>42</v>
+      </c>
+      <c r="E124" s="18">
+        <v>319460</v>
+      </c>
+      <c r="F124" s="174"/>
+      <c r="G124" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="H124" s="71"/>
       <c r="I124" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J124" s="18"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
-      <c r="M124" s="51"/>
+      <c r="M124" s="53"/>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="106"/>
-      <c r="C125" s="70"/>
+    <row r="125" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="131"/>
+      <c r="C125" s="73"/>
       <c r="D125" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E125" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F125" s="172"/>
-      <c r="G125" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="H125" s="69"/>
+      <c r="F125" s="174"/>
+      <c r="G125" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" s="71"/>
       <c r="I125" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J125" s="18"/>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
-      <c r="M125" s="51"/>
+      <c r="M125" s="53"/>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="106"/>
-      <c r="C126" s="70"/>
+    <row r="126" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="131"/>
+      <c r="C126" s="72" t="s">
+        <v>73</v>
+      </c>
       <c r="D126" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F126" s="172"/>
-      <c r="G126" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="H126" s="69"/>
+        <v>48</v>
+      </c>
+      <c r="E126" s="18">
+        <v>144.71</v>
+      </c>
+      <c r="F126" s="174"/>
+      <c r="G126" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="H126" s="71"/>
       <c r="I126" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
-      <c r="M126" s="51"/>
+      <c r="M126" s="53"/>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="106"/>
-      <c r="C127" s="71"/>
+    <row r="127" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="131"/>
+      <c r="C127" s="72"/>
       <c r="D127" s="19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F127" s="172"/>
-      <c r="G127" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="H127" s="69"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H127" s="71"/>
       <c r="I127" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
-      <c r="M127" s="51"/>
+      <c r="M127" s="53"/>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="106"/>
-      <c r="C128" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="60"/>
+    <row r="128" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="131"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E128" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="172"/>
-      <c r="G128" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="H128" s="60"/>
+      <c r="F128" s="174"/>
+      <c r="G128" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" s="71"/>
       <c r="I128" s="18" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
-      <c r="M128" s="51"/>
+      <c r="M128" s="53"/>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="106"/>
-      <c r="C129" s="59" t="s">
+    <row r="129" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="131"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="18">
+        <v>47470</v>
+      </c>
+      <c r="F129" s="174"/>
+      <c r="G129" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="H129" s="71"/>
+      <c r="I129" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="18"/>
+    </row>
+    <row r="130" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="131"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="174"/>
+      <c r="G130" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="H130" s="71"/>
+      <c r="I130" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="53"/>
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="131"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="174"/>
+      <c r="G131" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" s="71"/>
+      <c r="I131" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="53"/>
+      <c r="N131" s="18"/>
+    </row>
+    <row r="132" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="131"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F132" s="174"/>
+      <c r="G132" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="H132" s="71"/>
+      <c r="I132" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="53"/>
+      <c r="N132" s="18"/>
+    </row>
+    <row r="133" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="131"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F133" s="174"/>
+      <c r="G133" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" s="71"/>
+      <c r="I133" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="53"/>
+      <c r="N133" s="18"/>
+    </row>
+    <row r="134" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="131"/>
+      <c r="C134" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="62"/>
+      <c r="E134" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="174"/>
+      <c r="G134" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H134" s="62"/>
+      <c r="I134" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="53"/>
+      <c r="N134" s="18"/>
+    </row>
+    <row r="135" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="131"/>
+      <c r="C135" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="60"/>
-      <c r="E129" s="24">
+      <c r="D135" s="62"/>
+      <c r="E135" s="24">
         <v>63800</v>
       </c>
-      <c r="F129" s="172"/>
-      <c r="G129" s="61" t="s">
+      <c r="F135" s="174"/>
+      <c r="G135" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="H129" s="60"/>
-      <c r="I129" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="51"/>
-      <c r="N129" s="24"/>
-    </row>
-    <row r="130" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="106"/>
-      <c r="C130" s="59" t="s">
+      <c r="H135" s="62"/>
+      <c r="I135" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="24"/>
+    </row>
+    <row r="136" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="131"/>
+      <c r="C136" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="24">
+      <c r="D136" s="62"/>
+      <c r="E136" s="24">
         <v>23735</v>
       </c>
-      <c r="F130" s="172"/>
-      <c r="G130" s="61" t="s">
+      <c r="F136" s="174"/>
+      <c r="G136" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="H130" s="60"/>
-      <c r="I130" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="51"/>
-      <c r="N130" s="24"/>
-    </row>
-    <row r="131" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="106"/>
-      <c r="C131" s="62" t="s">
+      <c r="H136" s="62"/>
+      <c r="I136" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="53"/>
+      <c r="N136" s="24"/>
+    </row>
+    <row r="137" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="131"/>
+      <c r="C137" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D131" s="63"/>
-      <c r="E131" s="16" t="s">
+      <c r="D137" s="65"/>
+      <c r="E137" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="172"/>
-      <c r="G131" s="64" t="s">
+      <c r="F137" s="174"/>
+      <c r="G137" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="H131" s="63"/>
-      <c r="I131" s="16" t="s">
+      <c r="H137" s="65"/>
+      <c r="I137" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="51"/>
-      <c r="N131" s="16"/>
-    </row>
-    <row r="132" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="107"/>
-      <c r="C132" s="65" t="s">
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="16"/>
+    </row>
+    <row r="138" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="132"/>
+      <c r="C138" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D132" s="66"/>
-      <c r="E132" s="17" t="s">
+      <c r="D138" s="68"/>
+      <c r="E138" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F132" s="173"/>
-      <c r="G132" s="67" t="s">
+      <c r="F138" s="175"/>
+      <c r="G138" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="H132" s="66"/>
-      <c r="I132" s="17" t="s">
+      <c r="H138" s="68"/>
+      <c r="I138" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-      <c r="M132" s="52"/>
-      <c r="N132" s="17"/>
-    </row>
-    <row r="133" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="100" t="s">
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="54"/>
+      <c r="N138" s="17"/>
+    </row>
+    <row r="139" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B139" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C133" s="78"/>
-      <c r="D133" s="79"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="166" t="s">
+      <c r="C139" s="80"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="G133" s="147" t="s">
+      <c r="G139" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H133" s="148"/>
-      <c r="I133" s="33" t="s">
+      <c r="H139" s="153"/>
+      <c r="I139" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J133" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K133" s="37" t="s">
+      <c r="J139" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K139" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="L139" s="35"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="35"/>
+    </row>
+    <row r="140" spans="2:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="B140" s="126"/>
+      <c r="C140" s="116"/>
+      <c r="D140" s="117"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="169"/>
+      <c r="G140" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H140" s="56"/>
+      <c r="I140" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="L133" s="37"/>
-      <c r="M133" s="50"/>
-      <c r="N133" s="37"/>
-    </row>
-    <row r="134" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="101"/>
-      <c r="C134" s="108"/>
-      <c r="D134" s="109"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="167"/>
-      <c r="G134" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="H134" s="54"/>
-      <c r="I134" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="L134" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="M134" s="51"/>
-      <c r="N134" s="38" t="s">
+      <c r="L140" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M140" s="53"/>
+      <c r="N140" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="101"/>
-      <c r="C135" s="199" t="s">
+    <row r="141" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="126"/>
+      <c r="C141" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="D135" s="165"/>
-      <c r="E135" s="40" t="s">
+      <c r="D141" s="167"/>
+      <c r="E141" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F135" s="167"/>
-      <c r="G135" s="164" t="s">
+      <c r="F141" s="169"/>
+      <c r="G141" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="H135" s="165"/>
-      <c r="I135" s="40" t="s">
+      <c r="H141" s="167"/>
+      <c r="I141" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="51"/>
-      <c r="N135" s="40"/>
-    </row>
-    <row r="136" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="101"/>
-      <c r="C136" s="95" t="s">
+      <c r="J141" s="38"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="53"/>
+      <c r="N141" s="38"/>
+    </row>
+    <row r="142" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="126"/>
+      <c r="C142" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D136" s="96"/>
-      <c r="E136" s="20" t="s">
+      <c r="D142" s="121"/>
+      <c r="E142" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F136" s="167"/>
-      <c r="G136" s="169" t="s">
+      <c r="F142" s="169"/>
+      <c r="G142" s="171" t="s">
         <v>217</v>
       </c>
-      <c r="H136" s="96"/>
-      <c r="I136" s="20" t="s">
+      <c r="H142" s="121"/>
+      <c r="I142" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="20"/>
-    </row>
-    <row r="137" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="101"/>
-      <c r="C137" s="95" t="s">
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="53"/>
+      <c r="N142" s="20"/>
+    </row>
+    <row r="143" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="126"/>
+      <c r="C143" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="96"/>
-      <c r="E137" s="20" t="s">
+      <c r="D143" s="121"/>
+      <c r="E143" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F137" s="167"/>
-      <c r="G137" s="169" t="s">
+      <c r="F143" s="169"/>
+      <c r="G143" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="H137" s="96"/>
-      <c r="I137" s="20" t="s">
+      <c r="H143" s="121"/>
+      <c r="I143" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="51"/>
-      <c r="N137" s="20"/>
-    </row>
-    <row r="138" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="101"/>
-      <c r="C138" s="95" t="s">
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="20"/>
+    </row>
+    <row r="144" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="126"/>
+      <c r="C144" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D138" s="96"/>
-      <c r="E138" s="20" t="s">
+      <c r="D144" s="121"/>
+      <c r="E144" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F138" s="167"/>
-      <c r="G138" s="169" t="s">
+      <c r="F144" s="169"/>
+      <c r="G144" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="H138" s="96"/>
-      <c r="I138" s="20" t="s">
+      <c r="H144" s="121"/>
+      <c r="I144" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="51"/>
-      <c r="N138" s="20"/>
-    </row>
-    <row r="139" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="102"/>
-      <c r="C139" s="103" t="s">
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="20"/>
+    </row>
+    <row r="145" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="127"/>
+      <c r="C145" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="104"/>
-      <c r="E139" s="21" t="s">
+      <c r="D145" s="129"/>
+      <c r="E145" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F139" s="168"/>
-      <c r="G139" s="170" t="s">
+      <c r="F145" s="170"/>
+      <c r="G145" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="H139" s="104"/>
-      <c r="I139" s="21" t="s">
+      <c r="H145" s="129"/>
+      <c r="I145" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="21"/>
+      <c r="M145" s="54"/>
+      <c r="N145" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="253">
-    <mergeCell ref="F105:F110"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F111:F132"/>
+  <mergeCells count="267">
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="G113:H113"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F108:F116"/>
     <mergeCell ref="G114:H114"/>
-    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="G116:H116"/>
     <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F117:F138"/>
     <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
     <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="G75:H75"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="F34:F43"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="C35:D35"/>
@@ -5739,12 +6011,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
     <mergeCell ref="F3:F19"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G5:H5"/>
@@ -5753,36 +6019,37 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="F139:F145"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="F84:F107"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
     <mergeCell ref="G105:H105"/>
     <mergeCell ref="G106:H106"/>
-    <mergeCell ref="F133:F139"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="F81:F104"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="F50:F80"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="F50:F83"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="F44:F49"/>
@@ -5792,15 +6059,81 @@
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
     <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
-    <mergeCell ref="F34:F43"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B84:B107"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="B139:B145"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B117:B138"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B108:B116"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C57:C68"/>
+    <mergeCell ref="C69:C81"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B83"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B33"/>
     <mergeCell ref="C16:D16"/>
@@ -5814,107 +6147,50 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B81:B104"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C137:D137"/>
     <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B111:B132"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G124:H124"/>
     <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="C67:C78"/>
-    <mergeCell ref="B50:B80"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C126:C133"/>
+    <mergeCell ref="G133:H133"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C106:D106"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C91:C99"/>
+    <mergeCell ref="C94:C102"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="M133:M139"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="M139:M145"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="M3:M19"/>
     <mergeCell ref="M20:M33"/>
     <mergeCell ref="M34:M43"/>
     <mergeCell ref="M44:M49"/>
-    <mergeCell ref="M50:M80"/>
-    <mergeCell ref="M81:M104"/>
-    <mergeCell ref="M105:M110"/>
-    <mergeCell ref="M111:M132"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="C120:C127"/>
+    <mergeCell ref="M50:M83"/>
+    <mergeCell ref="M84:M107"/>
+    <mergeCell ref="M108:M116"/>
+    <mergeCell ref="M117:M138"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="G137:H137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/pilot_point_storage_design/PP_Storage_Design.xlsx
+++ b/docs/pilot_point_storage_design/PP_Storage_Design.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aurora/EclipseWorkspace/Equinox/docs/pilot_point_storage_design/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B0903-6853-CE46-B3C3-3E08C59B86E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40965" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="PP Template" sheetId="8" r:id="rId1"/>
@@ -20,13 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ARTIM, Murat</author>
     <author>Murat Artim</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -68,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -82,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="1" shapeId="0" xr:uid="{6544AD29-9F33-B44B-B89A-CFB07C4225B7}">
+    <comment ref="C52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="1" shapeId="0" xr:uid="{BF9E396F-A02C-0343-92C0-2349F348A250}">
+    <comment ref="C53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -110,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="1" shapeId="0" xr:uid="{7CE9ACF0-B1E5-594A-9A9D-1D4ABB4B75E0}">
+    <comment ref="C56" authorId="1">
       <text>
         <r>
           <rPr>
@@ -124,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C89" authorId="1">
       <text>
         <r>
           <rPr>
@@ -143,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="272">
   <si>
     <t>Spectrum Name</t>
   </si>
@@ -950,12 +944,21 @@
   </si>
   <si>
     <t>Pilot Point Name</t>
+  </si>
+  <si>
+    <t>Multiplication table column index</t>
+  </si>
+  <si>
+    <t>MULT_TABLE_COL</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1704,15 +1707,453 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,15 +2163,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1739,435 +2171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2231,7 +2234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2264,26 +2267,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2316,23 +2302,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2508,32 +2477,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:N145"/>
+  <dimension ref="B1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="23" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" style="22" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="37.125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="37.125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="24.875" style="22" customWidth="1"/>
+    <col min="13" max="13" width="28.625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="22" customWidth="1"/>
     <col min="15" max="16384" width="11" style="22"/>
   </cols>
   <sheetData>
@@ -2546,10 +2515,10 @@
       <c r="F2" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="165"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="39" t="s">
         <v>124</v>
       </c>
@@ -2569,20 +2538,20 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="153"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="31" t="s">
         <v>219</v>
       </c>
@@ -2593,23 +2562,23 @@
         <v>238</v>
       </c>
       <c r="L3" s="31"/>
-      <c r="M3" s="58"/>
+      <c r="M3" s="201"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="136"/>
-      <c r="C4" s="147" t="s">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="181"/>
+      <c r="C4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="176" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="148"/>
+      <c r="H4" s="123"/>
       <c r="I4" s="30" t="s">
         <v>220</v>
       </c>
@@ -2618,25 +2587,25 @@
       <c r="L4" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="202"/>
       <c r="N4" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="136"/>
-      <c r="C5" s="74" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="181"/>
+      <c r="C5" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="95" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="109"/>
       <c r="I5" s="6" t="s">
         <v>220</v>
       </c>
@@ -2645,73 +2614,73 @@
       <c r="L5" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="202"/>
       <c r="N5" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="136"/>
-      <c r="C6" s="74" t="s">
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="181"/>
+      <c r="C6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="95" t="s">
+      <c r="F6" s="106"/>
+      <c r="G6" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="59"/>
+      <c r="M6" s="202"/>
       <c r="N6" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="136"/>
-      <c r="C7" s="74" t="s">
+    <row r="7" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="181"/>
+      <c r="C7" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="181"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="109"/>
       <c r="I7" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="59"/>
+      <c r="M7" s="202"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="136"/>
-      <c r="C8" s="74" t="s">
+    <row r="8" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="181"/>
+      <c r="C8" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="181"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="109"/>
       <c r="I8" s="6" t="s">
         <v>220</v>
       </c>
@@ -2720,61 +2689,61 @@
       <c r="L8" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="202"/>
       <c r="N8" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="136"/>
-      <c r="C9" s="93" t="s">
+    <row r="9" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="181"/>
+      <c r="C9" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="94"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="181"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="94"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="59"/>
+      <c r="M9" s="202"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="136"/>
-      <c r="C10" s="93" t="s">
+    <row r="10" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="181"/>
+      <c r="C10" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="181"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="45"/>
       <c r="H10" s="44"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="202"/>
       <c r="N10" s="28"/>
     </row>
-    <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="136"/>
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="181"/>
+      <c r="C11" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="55" t="s">
+      <c r="F11" s="106"/>
+      <c r="G11" s="196" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="56"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="41" t="s">
         <v>220</v>
       </c>
@@ -2783,178 +2752,178 @@
       <c r="L11" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="136"/>
-      <c r="C12" s="74" t="s">
+    <row r="12" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="181"/>
+      <c r="C12" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="181"/>
-      <c r="G12" s="95" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="6" t="s">
         <v>222</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="59"/>
+      <c r="M12" s="202"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="93" t="s">
+    <row r="13" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="181"/>
+      <c r="C13" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="181"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="94"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="59"/>
+      <c r="M13" s="202"/>
       <c r="N13" s="28"/>
     </row>
-    <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="136"/>
-      <c r="C14" s="74" t="s">
+    <row r="14" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="181"/>
+      <c r="C14" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="181"/>
-      <c r="G14" s="95" t="s">
+      <c r="F14" s="106"/>
+      <c r="G14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="109"/>
       <c r="I14" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="202"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="136"/>
-      <c r="C15" s="74" t="s">
+    <row r="15" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="181"/>
+      <c r="C15" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="95" t="s">
+      <c r="F15" s="106"/>
+      <c r="G15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="75"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="59"/>
+      <c r="M15" s="202"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="136"/>
-      <c r="C16" s="74" t="s">
+    <row r="16" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="181"/>
+      <c r="C16" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="95" t="s">
+      <c r="F16" s="106"/>
+      <c r="G16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="6" t="s">
         <v>220</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="59"/>
+      <c r="M16" s="202"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="2:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="136"/>
-      <c r="C17" s="74" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="181"/>
+      <c r="C17" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="181"/>
-      <c r="G17" s="95" t="s">
+      <c r="F17" s="106"/>
+      <c r="G17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="75"/>
+      <c r="H17" s="109"/>
       <c r="I17" s="7" t="s">
         <v>222</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="202"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="136"/>
-      <c r="C18" s="93" t="s">
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="181"/>
+      <c r="C18" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="181"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="59"/>
+      <c r="M18" s="202"/>
       <c r="N18" s="29"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="137"/>
-      <c r="C19" s="141" t="s">
+    <row r="19" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="182"/>
+      <c r="C19" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="142"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183" t="s">
+      <c r="F19" s="107"/>
+      <c r="G19" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="142"/>
+      <c r="H19" s="113"/>
       <c r="I19" s="8" t="s">
         <v>220</v>
       </c>
@@ -2963,23 +2932,23 @@
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="60"/>
+      <c r="M19" s="203"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="138" t="s">
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="153"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="32" t="s">
         <v>219</v>
       </c>
@@ -2990,19 +2959,19 @@
         <v>238</v>
       </c>
       <c r="L20" s="32"/>
-      <c r="M20" s="52"/>
+      <c r="M20" s="198"/>
       <c r="N20" s="32"/>
     </row>
-    <row r="21" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="139"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="184"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="161" t="s">
+      <c r="F21" s="98"/>
+      <c r="G21" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="32" t="s">
         <v>219</v>
       </c>
@@ -3013,301 +2982,301 @@
       <c r="L21" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="M21" s="53"/>
+      <c r="M21" s="199"/>
       <c r="N21" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="139"/>
-      <c r="C22" s="145" t="s">
+    <row r="22" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="184"/>
+      <c r="C22" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="146"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="191"/>
-      <c r="G22" s="184" t="s">
+      <c r="F22" s="98"/>
+      <c r="G22" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="146"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="9" t="s">
         <v>220</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="53"/>
+      <c r="M22" s="199"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="139"/>
-      <c r="C23" s="78" t="s">
+    <row r="23" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="184"/>
+      <c r="C23" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="191"/>
-      <c r="G23" s="193" t="s">
+      <c r="F23" s="98"/>
+      <c r="G23" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="79"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="53"/>
+      <c r="M23" s="199"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="139"/>
-      <c r="C24" s="78" t="s">
+    <row r="24" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="184"/>
+      <c r="C24" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="191"/>
-      <c r="G24" s="193" t="s">
+      <c r="F24" s="98"/>
+      <c r="G24" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="79"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="53"/>
+      <c r="M24" s="199"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="139"/>
-      <c r="C25" s="78" t="s">
+    <row r="25" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="184"/>
+      <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="10">
         <v>1</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="193" t="s">
+      <c r="F25" s="98"/>
+      <c r="G25" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="79"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="53"/>
+      <c r="M25" s="199"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="139"/>
-      <c r="C26" s="78" t="s">
+    <row r="26" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="184"/>
+      <c r="C26" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="191"/>
-      <c r="G26" s="193" t="s">
+      <c r="F26" s="98"/>
+      <c r="G26" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="79"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="53"/>
+      <c r="M26" s="199"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="139"/>
-      <c r="C27" s="78" t="s">
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="184"/>
+      <c r="C27" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="10">
         <v>1</v>
       </c>
-      <c r="F27" s="191"/>
-      <c r="G27" s="193" t="s">
+      <c r="F27" s="98"/>
+      <c r="G27" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="10" t="s">
         <v>221</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="53"/>
+      <c r="M27" s="199"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="139"/>
-      <c r="C28" s="78" t="s">
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="184"/>
+      <c r="C28" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="79"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="191"/>
-      <c r="G28" s="193" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="79"/>
+      <c r="H28" s="101"/>
       <c r="I28" s="10" t="s">
         <v>220</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="53"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="139"/>
-      <c r="C29" s="78" t="s">
+    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="184"/>
+      <c r="C29" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="79"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="191"/>
-      <c r="G29" s="193" t="s">
+      <c r="F29" s="98"/>
+      <c r="G29" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="79"/>
+      <c r="H29" s="101"/>
       <c r="I29" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="53"/>
+      <c r="M29" s="199"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="139"/>
-      <c r="C30" s="78" t="s">
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="184"/>
+      <c r="C30" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="191"/>
-      <c r="G30" s="193" t="s">
+      <c r="F30" s="98"/>
+      <c r="G30" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="79"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="53"/>
+      <c r="M30" s="199"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="139"/>
-      <c r="C31" s="78" t="s">
+    <row r="31" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="184"/>
+      <c r="C31" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="191"/>
-      <c r="G31" s="193" t="s">
+      <c r="F31" s="98"/>
+      <c r="G31" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="79"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="10" t="s">
         <v>224</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="53"/>
+      <c r="M31" s="199"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="139"/>
-      <c r="C32" s="78" t="s">
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="184"/>
+      <c r="C32" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="191"/>
-      <c r="G32" s="193" t="s">
+      <c r="F32" s="98"/>
+      <c r="G32" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="79"/>
+      <c r="H32" s="101"/>
       <c r="I32" s="10" t="s">
         <v>223</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="53"/>
+      <c r="M32" s="199"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="140"/>
-      <c r="C33" s="86" t="s">
+    <row r="33" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="185"/>
+      <c r="C33" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="192"/>
-      <c r="G33" s="194" t="s">
+      <c r="F33" s="99"/>
+      <c r="G33" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="87"/>
+      <c r="H33" s="103"/>
       <c r="I33" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="54"/>
+      <c r="M33" s="200"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="97" t="s">
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="34"/>
-      <c r="F34" s="185" t="s">
+      <c r="F34" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="G34" s="152" t="s">
+      <c r="G34" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="153"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="31" t="s">
         <v>219</v>
       </c>
@@ -3318,19 +3287,19 @@
         <v>238</v>
       </c>
       <c r="L34" s="35"/>
-      <c r="M34" s="52"/>
+      <c r="M34" s="198"/>
       <c r="N34" s="35"/>
     </row>
-    <row r="35" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="172"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="161" t="s">
+      <c r="F35" s="90"/>
+      <c r="G35" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="56"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="36" t="s">
         <v>219</v>
       </c>
@@ -3341,209 +3310,209 @@
       <c r="L35" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M35" s="53"/>
+      <c r="M35" s="199"/>
       <c r="N35" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="97"/>
-      <c r="C36" s="187" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="172"/>
+      <c r="C36" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="188"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="185"/>
-      <c r="G36" s="189" t="s">
+      <c r="F36" s="90"/>
+      <c r="G36" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="188"/>
+      <c r="H36" s="95"/>
       <c r="I36" s="33" t="s">
         <v>220</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
-      <c r="M36" s="53"/>
+      <c r="M36" s="199"/>
       <c r="N36" s="33"/>
     </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="97"/>
-      <c r="C37" s="88" t="s">
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="172"/>
+      <c r="C37" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="89"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="185"/>
-      <c r="G37" s="177" t="s">
+      <c r="F37" s="90"/>
+      <c r="G37" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="89"/>
+      <c r="H37" s="93"/>
       <c r="I37" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="53"/>
+      <c r="M37" s="199"/>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="97"/>
-      <c r="C38" s="88" t="s">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="172"/>
+      <c r="C38" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="93"/>
       <c r="E38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="185"/>
-      <c r="G38" s="177" t="s">
+      <c r="F38" s="90"/>
+      <c r="G38" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="89"/>
+      <c r="H38" s="93"/>
       <c r="I38" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="53"/>
+      <c r="M38" s="199"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="97"/>
-      <c r="C39" s="91" t="s">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="172"/>
+      <c r="C39" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="92"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="185"/>
-      <c r="G39" s="178" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="92"/>
+      <c r="H39" s="144"/>
       <c r="I39" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="53"/>
+      <c r="M39" s="199"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="97"/>
-      <c r="C40" s="91" t="s">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="172"/>
+      <c r="C40" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="92"/>
+      <c r="D40" s="144"/>
       <c r="E40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="185"/>
-      <c r="G40" s="178" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="H40" s="92"/>
+      <c r="H40" s="144"/>
       <c r="I40" s="12" t="s">
         <v>222</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="53"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="97"/>
-      <c r="C41" s="88" t="s">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="172"/>
+      <c r="C41" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="89"/>
+      <c r="D41" s="93"/>
       <c r="E41" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="185"/>
-      <c r="G41" s="177" t="s">
+      <c r="F41" s="90"/>
+      <c r="G41" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="H41" s="89"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="53"/>
+      <c r="M41" s="199"/>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="97"/>
-      <c r="C42" s="88" t="s">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="172"/>
+      <c r="C42" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="89"/>
+      <c r="D42" s="93"/>
       <c r="E42" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="185"/>
-      <c r="G42" s="177" t="s">
+      <c r="F42" s="90"/>
+      <c r="G42" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="H42" s="89"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="12" t="s">
         <v>221</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="53"/>
+      <c r="M42" s="199"/>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99" t="s">
+    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="173"/>
+      <c r="C43" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="100"/>
+      <c r="D43" s="162"/>
       <c r="E43" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="186"/>
-      <c r="G43" s="179" t="s">
+      <c r="F43" s="91"/>
+      <c r="G43" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="100"/>
+      <c r="H43" s="162"/>
       <c r="I43" s="13" t="s">
         <v>221</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
-      <c r="M43" s="54"/>
+      <c r="M43" s="200"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B44" s="101" t="s">
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="34"/>
-      <c r="F44" s="155" t="s">
+      <c r="F44" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="152" t="s">
+      <c r="G44" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="153"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="31" t="s">
         <v>219</v>
       </c>
@@ -3554,19 +3523,19 @@
         <v>238</v>
       </c>
       <c r="L44" s="35"/>
-      <c r="M44" s="52"/>
+      <c r="M44" s="198"/>
       <c r="N44" s="35"/>
     </row>
-    <row r="45" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B45" s="102"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="175"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="161" t="s">
+      <c r="F45" s="131"/>
+      <c r="G45" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H45" s="56"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="36" t="s">
         <v>219</v>
       </c>
@@ -3577,109 +3546,109 @@
       <c r="L45" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M45" s="53"/>
+      <c r="M45" s="199"/>
       <c r="N45" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="102"/>
-      <c r="C46" s="118" t="s">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="175"/>
+      <c r="C46" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="119"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="162" t="s">
+      <c r="F46" s="131"/>
+      <c r="G46" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="119"/>
+      <c r="H46" s="140"/>
       <c r="I46" s="37" t="s">
         <v>220</v>
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="53"/>
+      <c r="M46" s="199"/>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="102"/>
-      <c r="C47" s="110" t="s">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="175"/>
+      <c r="C47" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="111"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="158" t="s">
+      <c r="F47" s="131"/>
+      <c r="G47" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="111"/>
+      <c r="H47" s="134"/>
       <c r="I47" s="14" t="s">
         <v>220</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
-      <c r="M47" s="53"/>
+      <c r="M47" s="199"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="102"/>
-      <c r="C48" s="112" t="s">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="175"/>
+      <c r="C48" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="136"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="159" t="s">
+      <c r="F48" s="131"/>
+      <c r="G48" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="113"/>
+      <c r="H48" s="136"/>
       <c r="I48" s="14" t="s">
         <v>222</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
-      <c r="M48" s="53"/>
+      <c r="M48" s="199"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
-      <c r="C49" s="76" t="s">
+    <row r="49" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="176"/>
+      <c r="C49" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="77"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="160" t="s">
+      <c r="F49" s="132"/>
+      <c r="G49" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="77"/>
+      <c r="H49" s="138"/>
       <c r="I49" s="15" t="s">
         <v>222</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" s="54"/>
+      <c r="M49" s="200"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B50" s="107" t="s">
+    <row r="50" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="202"/>
-      <c r="D50" s="203"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="192"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="149" t="s">
+      <c r="F50" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="152" t="s">
+      <c r="G50" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="153"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="31" t="s">
         <v>219</v>
       </c>
@@ -3690,19 +3659,19 @@
         <v>238</v>
       </c>
       <c r="L50" s="35"/>
-      <c r="M50" s="52"/>
+      <c r="M50" s="198"/>
       <c r="N50" s="35"/>
     </row>
-    <row r="51" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B51" s="108"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="117"/>
+    <row r="51" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="178"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="161" t="s">
+      <c r="F51" s="126"/>
+      <c r="G51" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H51" s="56"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="36" t="s">
         <v>219</v>
       </c>
@@ -3713,25 +3682,25 @@
       <c r="L51" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M51" s="53"/>
+      <c r="M51" s="199"/>
       <c r="N51" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B52" s="108"/>
-      <c r="C52" s="57" t="s">
+    <row r="52" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="178"/>
+      <c r="C52" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="56"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="150"/>
-      <c r="G52" s="55" t="s">
+      <c r="F52" s="126"/>
+      <c r="G52" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="H52" s="56"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="32" t="s">
         <v>219</v>
       </c>
@@ -3742,25 +3711,25 @@
       <c r="L52" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="M52" s="53"/>
+      <c r="M52" s="199"/>
       <c r="N52" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="108"/>
-      <c r="C53" s="57" t="s">
+    <row r="53" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="178"/>
+      <c r="C53" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="56"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="150"/>
-      <c r="G53" s="55" t="s">
+      <c r="F53" s="126"/>
+      <c r="G53" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="56"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="32" t="s">
         <v>221</v>
       </c>
@@ -3769,2225 +3738,2357 @@
       <c r="L53" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="M53" s="53"/>
+      <c r="M53" s="199"/>
       <c r="N53" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="108"/>
-      <c r="C54" s="114" t="s">
+    <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="178"/>
+      <c r="C54" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="115"/>
+      <c r="D54" s="129"/>
       <c r="E54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="150"/>
-      <c r="G54" s="154" t="s">
+      <c r="F54" s="126"/>
+      <c r="G54" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="H54" s="115"/>
+      <c r="H54" s="129"/>
       <c r="I54" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="53"/>
+      <c r="M54" s="199"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="108"/>
-      <c r="C55" s="114" t="s">
+    <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="178"/>
+      <c r="C55" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="115"/>
+      <c r="D55" s="129"/>
       <c r="E55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="150"/>
-      <c r="G55" s="154" t="s">
+      <c r="F55" s="126"/>
+      <c r="G55" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="H55" s="115"/>
+      <c r="H55" s="129"/>
       <c r="I55" s="2" t="s">
         <v>222</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="53"/>
+      <c r="M55" s="199"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="108"/>
-      <c r="C56" s="49" t="s">
+    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="178"/>
+      <c r="C56" s="197" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="50"/>
+      <c r="D56" s="142"/>
       <c r="E56" s="48"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="51" t="s">
+      <c r="F56" s="126"/>
+      <c r="G56" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="H56" s="50"/>
+      <c r="H56" s="142"/>
       <c r="I56" s="48" t="s">
         <v>222</v>
       </c>
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
-      <c r="M56" s="53"/>
+      <c r="M56" s="199"/>
       <c r="N56" s="48"/>
     </row>
-    <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="108"/>
-      <c r="C57" s="104" t="s">
+    <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="178"/>
+      <c r="C57" s="197" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="142"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="141" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="142"/>
+      <c r="I57" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="199"/>
+      <c r="N57" s="48"/>
+    </row>
+    <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="178"/>
+      <c r="C58" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="150"/>
-      <c r="G57" s="163" t="s">
+      <c r="F58" s="126"/>
+      <c r="G58" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="164"/>
-      <c r="I57" s="3" t="s">
+      <c r="H58" s="82"/>
+      <c r="I58" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="108"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="163" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="164"/>
-      <c r="I58" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="53"/>
+      <c r="M58" s="199"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="108"/>
-      <c r="C59" s="105"/>
+    <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="178"/>
+      <c r="C59" s="165"/>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="150"/>
-      <c r="G59" s="163" t="s">
-        <v>175</v>
-      </c>
-      <c r="H59" s="164"/>
+        <v>108</v>
+      </c>
+      <c r="F59" s="126"/>
+      <c r="G59" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="82"/>
       <c r="I59" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="53"/>
+      <c r="M59" s="199"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="108"/>
-      <c r="C60" s="105"/>
+    <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="178"/>
+      <c r="C60" s="165"/>
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="163" t="s">
-        <v>174</v>
-      </c>
-      <c r="H60" s="164"/>
+        <v>109</v>
+      </c>
+      <c r="F60" s="126"/>
+      <c r="G60" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="82"/>
       <c r="I60" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="53"/>
+      <c r="M60" s="199"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="108"/>
-      <c r="C61" s="105"/>
+    <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="178"/>
+      <c r="C61" s="165"/>
       <c r="D61" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="150"/>
-      <c r="G61" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="H61" s="164"/>
+        <v>110</v>
+      </c>
+      <c r="F61" s="126"/>
+      <c r="G61" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="82"/>
       <c r="I61" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="53"/>
+      <c r="M61" s="199"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="108"/>
-      <c r="C62" s="105"/>
+    <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="178"/>
+      <c r="C62" s="165"/>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F62" s="150"/>
-      <c r="G62" s="163" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="164"/>
+        <v>111</v>
+      </c>
+      <c r="F62" s="126"/>
+      <c r="G62" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="82"/>
       <c r="I62" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="53"/>
+      <c r="M62" s="199"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="108"/>
-      <c r="C63" s="105"/>
+    <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="178"/>
+      <c r="C63" s="165"/>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="150"/>
-      <c r="G63" s="163" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="164"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="82"/>
       <c r="I63" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="53"/>
+      <c r="M63" s="199"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="108"/>
-      <c r="C64" s="105"/>
+    <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="178"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="150"/>
-      <c r="G64" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="H64" s="164"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="82"/>
       <c r="I64" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="53"/>
+      <c r="M64" s="199"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="108"/>
-      <c r="C65" s="105"/>
+    <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="178"/>
+      <c r="C65" s="165"/>
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F65" s="150"/>
-      <c r="G65" s="163" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="164"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="H65" s="82"/>
       <c r="I65" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="53"/>
+      <c r="M65" s="199"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="108"/>
-      <c r="C66" s="105"/>
+    <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="178"/>
+      <c r="C66" s="165"/>
       <c r="D66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="150"/>
-      <c r="G66" s="163" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" s="164"/>
+        <v>84</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="126"/>
+      <c r="G66" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="82"/>
       <c r="I66" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="53"/>
+      <c r="M66" s="199"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="108"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="46" t="s">
+    <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="178"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="126"/>
+      <c r="G67" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="82"/>
+      <c r="I67" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="199"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="178"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="150"/>
-      <c r="G67" s="51" t="s">
+      <c r="E68" s="47"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="H67" s="50"/>
-      <c r="I67" s="47" t="s">
+      <c r="H68" s="142"/>
+      <c r="I68" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="47"/>
-    </row>
-    <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="108"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="1" t="s">
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="199"/>
+      <c r="N68" s="47"/>
+    </row>
+    <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="178"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="150"/>
-      <c r="G68" s="163" t="s">
+      <c r="F69" s="126"/>
+      <c r="G69" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="H68" s="164"/>
-      <c r="I68" s="3" t="s">
+      <c r="H69" s="82"/>
+      <c r="I69" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="108"/>
-      <c r="C69" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F69" s="150"/>
-      <c r="G69" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="H69" s="164"/>
-      <c r="I69" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="53"/>
+      <c r="M69" s="199"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="108"/>
-      <c r="C70" s="105"/>
+    <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="178"/>
+      <c r="C70" s="164" t="s">
+        <v>59</v>
+      </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="150"/>
-      <c r="G70" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" s="164"/>
+        <v>113</v>
+      </c>
+      <c r="F70" s="126"/>
+      <c r="G70" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="82"/>
       <c r="I70" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="53"/>
+      <c r="M70" s="199"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="108"/>
-      <c r="C71" s="105"/>
+    <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="178"/>
+      <c r="C71" s="165"/>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="150"/>
-      <c r="G71" s="163" t="s">
-        <v>183</v>
-      </c>
-      <c r="H71" s="164"/>
+        <v>114</v>
+      </c>
+      <c r="F71" s="126"/>
+      <c r="G71" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" s="82"/>
       <c r="I71" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="53"/>
+      <c r="M71" s="199"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="108"/>
-      <c r="C72" s="105"/>
+    <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="178"/>
+      <c r="C72" s="165"/>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" s="150"/>
-      <c r="G72" s="163" t="s">
-        <v>184</v>
-      </c>
-      <c r="H72" s="164"/>
+        <v>115</v>
+      </c>
+      <c r="F72" s="126"/>
+      <c r="G72" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="82"/>
       <c r="I72" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="53"/>
+      <c r="M72" s="199"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="108"/>
-      <c r="C73" s="105"/>
+    <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="178"/>
+      <c r="C73" s="165"/>
       <c r="D73" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F73" s="150"/>
-      <c r="G73" s="163" t="s">
-        <v>185</v>
-      </c>
-      <c r="H73" s="164"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="H73" s="82"/>
       <c r="I73" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="53"/>
+      <c r="M73" s="199"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="108"/>
-      <c r="C74" s="105"/>
+    <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="178"/>
+      <c r="C74" s="165"/>
       <c r="D74" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F74" s="150"/>
-      <c r="G74" s="163" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="164"/>
+        <v>110</v>
+      </c>
+      <c r="F74" s="126"/>
+      <c r="G74" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" s="82"/>
       <c r="I74" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="53"/>
+      <c r="M74" s="199"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="108"/>
-      <c r="C75" s="105"/>
+    <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="178"/>
+      <c r="C75" s="165"/>
       <c r="D75" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="150"/>
-      <c r="G75" s="163" t="s">
-        <v>187</v>
-      </c>
-      <c r="H75" s="164"/>
+        <v>111</v>
+      </c>
+      <c r="F75" s="126"/>
+      <c r="G75" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="82"/>
       <c r="I75" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="53"/>
+      <c r="M75" s="199"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="108"/>
-      <c r="C76" s="105"/>
+    <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="178"/>
+      <c r="C76" s="165"/>
       <c r="D76" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="150"/>
-      <c r="G76" s="163" t="s">
-        <v>188</v>
-      </c>
-      <c r="H76" s="164"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="82"/>
       <c r="I76" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="53"/>
+      <c r="M76" s="199"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="108"/>
-      <c r="C77" s="105"/>
+    <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="178"/>
+      <c r="C77" s="165"/>
       <c r="D77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="150"/>
-      <c r="G77" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="H77" s="164"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="82"/>
       <c r="I77" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="53"/>
+      <c r="M77" s="199"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="108"/>
-      <c r="C78" s="105"/>
+    <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="178"/>
+      <c r="C78" s="165"/>
       <c r="D78" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="150"/>
-      <c r="G78" s="163" t="s">
-        <v>190</v>
-      </c>
-      <c r="H78" s="164"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" s="82"/>
       <c r="I78" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="53"/>
+      <c r="M78" s="199"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="108"/>
-      <c r="C79" s="105"/>
+    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="178"/>
+      <c r="C79" s="165"/>
       <c r="D79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="150"/>
-      <c r="G79" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="164"/>
+        <v>84</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="126"/>
+      <c r="G79" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="H79" s="82"/>
       <c r="I79" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="53"/>
+      <c r="M79" s="199"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="108"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="46" t="s">
+    <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="178"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="126"/>
+      <c r="G80" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="82"/>
+      <c r="I80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="199"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="178"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="51" t="s">
+      <c r="E81" s="47"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="H80" s="50"/>
-      <c r="I80" s="47" t="s">
+      <c r="H81" s="142"/>
+      <c r="I81" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="47"/>
-      <c r="K80" s="47"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="47"/>
-    </row>
-    <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="108"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="1" t="s">
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="199"/>
+      <c r="N81" s="47"/>
+    </row>
+    <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="178"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="150"/>
-      <c r="G81" s="163" t="s">
+      <c r="F82" s="126"/>
+      <c r="G82" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="H81" s="164"/>
-      <c r="I81" s="3" t="s">
+      <c r="H82" s="82"/>
+      <c r="I82" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="108"/>
-      <c r="C82" s="82" t="s">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="199"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="178"/>
+      <c r="C83" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="83"/>
-      <c r="E82" s="4" t="s">
+      <c r="D83" s="84"/>
+      <c r="E83" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="150"/>
-      <c r="G82" s="196" t="s">
+      <c r="F83" s="126"/>
+      <c r="G83" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="H82" s="83"/>
-      <c r="I82" s="4" t="s">
+      <c r="H83" s="84"/>
+      <c r="I83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="4"/>
-    </row>
-    <row r="83" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="109"/>
-      <c r="C83" s="84" t="s">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="199"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="179"/>
+      <c r="C84" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="85"/>
-      <c r="E83" s="5" t="s">
+      <c r="D84" s="86"/>
+      <c r="E84" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="151"/>
-      <c r="G83" s="197" t="s">
+      <c r="F84" s="127"/>
+      <c r="G84" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="H83" s="85"/>
-      <c r="I83" s="5" t="s">
+      <c r="H84" s="86"/>
+      <c r="I84" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B84" s="122" t="s">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="200"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="80"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="173" t="s">
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="152" t="s">
+      <c r="G85" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H84" s="153"/>
-      <c r="I84" s="31" t="s">
+      <c r="H85" s="68"/>
+      <c r="I85" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J84" s="35" t="s">
+      <c r="J85" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="K84" s="32" t="s">
+      <c r="K85" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="L84" s="35"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="35"/>
-    </row>
-    <row r="85" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B85" s="123"/>
-      <c r="C85" s="116"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="174"/>
-      <c r="G85" s="161" t="s">
+      <c r="L85" s="35"/>
+      <c r="M85" s="198"/>
+      <c r="N85" s="35"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="149"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="H85" s="56"/>
-      <c r="I85" s="36" t="s">
+      <c r="H86" s="57"/>
+      <c r="I86" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="J85" s="36"/>
-      <c r="K85" s="32" t="s">
+      <c r="J86" s="36"/>
+      <c r="K86" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="L85" s="36" t="s">
+      <c r="L86" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M85" s="53"/>
-      <c r="N85" s="36" t="s">
+      <c r="M86" s="199"/>
+      <c r="N86" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="123"/>
-      <c r="C86" s="133" t="s">
+    <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="149"/>
+      <c r="C87" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D86" s="134"/>
-      <c r="E86" s="16" t="s">
+      <c r="D87" s="70"/>
+      <c r="E87" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F86" s="174"/>
-      <c r="G86" s="195" t="s">
+      <c r="F87" s="65"/>
+      <c r="G87" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="H86" s="134"/>
-      <c r="I86" s="16" t="s">
+      <c r="H87" s="70"/>
+      <c r="I87" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="16"/>
-    </row>
-    <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="123"/>
-      <c r="C87" s="61" t="s">
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="199"/>
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="149"/>
+      <c r="C88" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="17" t="s">
+      <c r="D88" s="72"/>
+      <c r="E88" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="174"/>
-      <c r="G87" s="63" t="s">
+      <c r="F88" s="65"/>
+      <c r="G88" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="H87" s="62"/>
-      <c r="I87" s="17" t="s">
+      <c r="H88" s="72"/>
+      <c r="I88" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="17"/>
-    </row>
-    <row r="88" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="123"/>
-      <c r="C88" s="61" t="s">
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="199"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="2:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="149"/>
+      <c r="C89" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="17" t="s">
+      <c r="D89" s="72"/>
+      <c r="E89" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="174"/>
-      <c r="G88" s="70" t="s">
+      <c r="F89" s="65"/>
+      <c r="G89" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="H88" s="71"/>
-      <c r="I88" s="18" t="s">
+      <c r="H89" s="77"/>
+      <c r="I89" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18" t="s">
+      <c r="J89" s="18"/>
+      <c r="K89" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="L88" s="18"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="18" t="s">
+      <c r="L89" s="18"/>
+      <c r="M89" s="199"/>
+      <c r="N89" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="123"/>
-      <c r="C89" s="90" t="s">
+    <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="149"/>
+      <c r="C90" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D90" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E90" s="18">
         <v>256.49799999999999</v>
       </c>
-      <c r="F89" s="174"/>
-      <c r="G89" s="70" t="s">
+      <c r="F90" s="65"/>
+      <c r="G90" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="H89" s="71"/>
-      <c r="I89" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="18"/>
-    </row>
-    <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="123"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" s="174"/>
-      <c r="G90" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="H90" s="71"/>
+      <c r="H90" s="77"/>
       <c r="I90" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
-      <c r="M90" s="53"/>
+      <c r="M90" s="199"/>
       <c r="N90" s="18"/>
     </row>
-    <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="123"/>
-      <c r="C91" s="72"/>
+    <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="149"/>
+      <c r="C91" s="74"/>
       <c r="D91" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="174"/>
-      <c r="G91" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="H91" s="71"/>
+        <v>89</v>
+      </c>
+      <c r="F91" s="65"/>
+      <c r="G91" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="H91" s="77"/>
       <c r="I91" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J91" s="18"/>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
-      <c r="M91" s="53"/>
+      <c r="M91" s="199"/>
       <c r="N91" s="18"/>
     </row>
-    <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="123"/>
-      <c r="C92" s="72"/>
+    <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="149"/>
+      <c r="C92" s="74"/>
       <c r="D92" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="18">
-        <v>319460</v>
-      </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="H92" s="71"/>
+        <v>68</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="65"/>
+      <c r="G92" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H92" s="77"/>
       <c r="I92" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
-      <c r="M92" s="53"/>
+      <c r="M92" s="199"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="123"/>
-      <c r="C93" s="73"/>
+    <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="149"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="H93" s="71"/>
+        <v>42</v>
+      </c>
+      <c r="E93" s="18">
+        <v>319460</v>
+      </c>
+      <c r="F93" s="65"/>
+      <c r="G93" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="H93" s="77"/>
       <c r="I93" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
-      <c r="M93" s="53"/>
+      <c r="M93" s="199"/>
       <c r="N93" s="18"/>
     </row>
     <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="123"/>
-      <c r="C94" s="90" t="s">
+      <c r="B94" s="149"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="65"/>
+      <c r="G94" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" s="77"/>
+      <c r="I94" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="199"/>
+      <c r="N94" s="18"/>
+    </row>
+    <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="149"/>
+      <c r="C95" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="174"/>
-      <c r="G94" s="198" t="s">
+      <c r="D95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="H94" s="199"/>
-      <c r="I94" s="43" t="s">
+      <c r="H95" s="79"/>
+      <c r="I95" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43" t="s">
+      <c r="J95" s="43"/>
+      <c r="K95" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="L94" s="43"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="43" t="s">
+      <c r="L95" s="43"/>
+      <c r="M95" s="199"/>
+      <c r="N95" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="123"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="19" t="s">
+    <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="149"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E96" s="18">
         <v>144.71</v>
       </c>
-      <c r="F95" s="174"/>
-      <c r="G95" s="70" t="s">
+      <c r="F96" s="65"/>
+      <c r="G96" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="H95" s="71"/>
-      <c r="I95" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="18"/>
-    </row>
-    <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="123"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F96" s="174"/>
-      <c r="G96" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="H96" s="71"/>
+      <c r="H96" s="77"/>
       <c r="I96" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J96" s="18"/>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
-      <c r="M96" s="53"/>
+      <c r="M96" s="199"/>
       <c r="N96" s="18"/>
     </row>
-    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="123"/>
-      <c r="C97" s="72"/>
+    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="149"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="19" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F97" s="174"/>
-      <c r="G97" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="H97" s="71"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" s="77"/>
       <c r="I97" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
-      <c r="M97" s="53"/>
+      <c r="M97" s="199"/>
       <c r="N97" s="18"/>
     </row>
-    <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="123"/>
-      <c r="C98" s="72"/>
+    <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="149"/>
+      <c r="C98" s="74"/>
       <c r="D98" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" s="18">
-        <v>47470</v>
-      </c>
-      <c r="F98" s="174"/>
-      <c r="G98" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" s="65"/>
+      <c r="G98" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" s="77"/>
       <c r="I98" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J98" s="18"/>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
-      <c r="M98" s="53"/>
+      <c r="M98" s="199"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="123"/>
-      <c r="C99" s="72"/>
+    <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="149"/>
+      <c r="C99" s="74"/>
       <c r="D99" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" s="174"/>
-      <c r="G99" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="H99" s="71"/>
+        <v>41</v>
+      </c>
+      <c r="E99" s="18">
+        <v>47470</v>
+      </c>
+      <c r="F99" s="65"/>
+      <c r="G99" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="77"/>
       <c r="I99" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J99" s="18"/>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
-      <c r="M99" s="53"/>
+      <c r="M99" s="199"/>
       <c r="N99" s="18"/>
     </row>
-    <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="123"/>
-      <c r="C100" s="72"/>
+    <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="149"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="19" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="174"/>
-      <c r="G100" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="71"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" s="77"/>
       <c r="I100" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J100" s="18"/>
       <c r="K100" s="18"/>
       <c r="L100" s="18"/>
-      <c r="M100" s="53"/>
+      <c r="M100" s="199"/>
       <c r="N100" s="18"/>
     </row>
-    <row r="101" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="123"/>
-      <c r="C101" s="72"/>
+    <row r="101" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="149"/>
+      <c r="C101" s="74"/>
       <c r="D101" s="19" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F101" s="174"/>
-      <c r="G101" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="H101" s="71"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" s="77"/>
       <c r="I101" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J101" s="18"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
-      <c r="M101" s="53"/>
+      <c r="M101" s="199"/>
       <c r="N101" s="18"/>
     </row>
-    <row r="102" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="123"/>
-      <c r="C102" s="73"/>
+    <row r="102" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="149"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="19" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="174"/>
-      <c r="G102" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="H102" s="71"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H102" s="77"/>
       <c r="I102" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
-      <c r="M102" s="53"/>
+      <c r="M102" s="199"/>
       <c r="N102" s="18"/>
     </row>
-    <row r="103" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="123"/>
-      <c r="C103" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D103" s="62"/>
+    <row r="103" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="149"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E103" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F103" s="174"/>
-      <c r="G103" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="H103" s="62"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H103" s="77"/>
       <c r="I103" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J103" s="18"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
-      <c r="M103" s="53"/>
+      <c r="M103" s="199"/>
       <c r="N103" s="18"/>
     </row>
-    <row r="104" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="123"/>
-      <c r="C104" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="62"/>
-      <c r="E104" s="24">
-        <v>63800</v>
-      </c>
-      <c r="F104" s="174"/>
-      <c r="G104" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="H104" s="62"/>
+    <row r="104" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="149"/>
+      <c r="C104" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="72"/>
+      <c r="E104" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="65"/>
+      <c r="G104" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="H104" s="72"/>
       <c r="I104" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="J104" s="24"/>
-      <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="24"/>
-    </row>
-    <row r="105" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="123"/>
-      <c r="C105" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="62"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="199"/>
+      <c r="N104" s="18"/>
+    </row>
+    <row r="105" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="149"/>
+      <c r="C105" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="72"/>
       <c r="E105" s="24">
-        <v>23735</v>
-      </c>
-      <c r="F105" s="174"/>
-      <c r="G105" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H105" s="62"/>
+        <v>63800</v>
+      </c>
+      <c r="F105" s="65"/>
+      <c r="G105" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="H105" s="72"/>
       <c r="I105" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J105" s="24"/>
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
-      <c r="M105" s="53"/>
+      <c r="M105" s="199"/>
       <c r="N105" s="24"/>
     </row>
-    <row r="106" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="123"/>
-      <c r="C106" s="64" t="s">
+    <row r="106" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="149"/>
+      <c r="C106" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="72"/>
+      <c r="E106" s="24">
+        <v>23735</v>
+      </c>
+      <c r="F106" s="65"/>
+      <c r="G106" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H106" s="72"/>
+      <c r="I106" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="199"/>
+      <c r="N106" s="24"/>
+    </row>
+    <row r="107" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="149"/>
+      <c r="C107" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D106" s="65"/>
-      <c r="E106" s="16" t="s">
+      <c r="D107" s="119"/>
+      <c r="E107" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F106" s="174"/>
-      <c r="G106" s="66" t="s">
+      <c r="F107" s="65"/>
+      <c r="G107" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="H106" s="65"/>
-      <c r="I106" s="16" t="s">
+      <c r="H107" s="119"/>
+      <c r="I107" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="16"/>
-    </row>
-    <row r="107" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="124"/>
-      <c r="C107" s="67" t="s">
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="199"/>
+      <c r="N107" s="16"/>
+    </row>
+    <row r="108" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="150"/>
+      <c r="C108" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="17" t="s">
+      <c r="D108" s="121"/>
+      <c r="E108" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F107" s="175"/>
-      <c r="G107" s="69" t="s">
+      <c r="F108" s="66"/>
+      <c r="G108" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="H107" s="68"/>
-      <c r="I107" s="17" t="s">
+      <c r="H108" s="121"/>
+      <c r="I108" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="17"/>
-    </row>
-    <row r="108" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B108" s="130" t="s">
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="200"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="C108" s="80"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="168" t="s">
+      <c r="C109" s="61"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="G108" s="152" t="s">
+      <c r="G109" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H108" s="153"/>
-      <c r="I108" s="31" t="s">
+      <c r="H109" s="68"/>
+      <c r="I109" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J108" s="35" t="s">
+      <c r="J109" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="K108" s="35" t="s">
+      <c r="K109" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="L108" s="35"/>
-      <c r="M108" s="52"/>
-      <c r="N108" s="35"/>
-    </row>
-    <row r="109" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="131"/>
-      <c r="C109" s="201" t="s">
+      <c r="L109" s="35"/>
+      <c r="M109" s="198"/>
+      <c r="N109" s="35"/>
+    </row>
+    <row r="110" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="157"/>
+      <c r="C110" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D109" s="167"/>
-      <c r="E109" s="38" t="s">
+      <c r="D110" s="50"/>
+      <c r="E110" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="169"/>
-      <c r="G109" s="166" t="s">
+      <c r="F110" s="53"/>
+      <c r="G110" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H109" s="167"/>
-      <c r="I109" s="38" t="s">
+      <c r="H110" s="50"/>
+      <c r="I110" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="38"/>
-    </row>
-    <row r="110" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="131"/>
-      <c r="C110" s="120" t="s">
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="199"/>
+      <c r="N110" s="38"/>
+    </row>
+    <row r="111" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="157"/>
+      <c r="C111" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="D110" s="121"/>
-      <c r="E110" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F110" s="169"/>
-      <c r="G110" s="171" t="s">
-        <v>230</v>
-      </c>
-      <c r="H110" s="121"/>
-      <c r="I110" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="53"/>
-      <c r="N110" s="20"/>
-    </row>
-    <row r="111" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="131"/>
-      <c r="C111" s="201" t="s">
-        <v>262</v>
-      </c>
-      <c r="D111" s="167"/>
+      <c r="D111" s="60"/>
       <c r="E111" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F111" s="169"/>
-      <c r="G111" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="H111" s="167"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="H111" s="60"/>
       <c r="I111" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
-      <c r="M111" s="53"/>
+      <c r="M111" s="199"/>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="131"/>
-      <c r="C112" s="201" t="s">
-        <v>263</v>
-      </c>
-      <c r="D112" s="167"/>
+    <row r="112" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="157"/>
+      <c r="C112" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="50"/>
       <c r="E112" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F112" s="169"/>
-      <c r="G112" s="200" t="s">
-        <v>266</v>
-      </c>
-      <c r="H112" s="167"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="H112" s="50"/>
       <c r="I112" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
-      <c r="M112" s="53"/>
+      <c r="M112" s="199"/>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="131"/>
-      <c r="C113" s="201" t="s">
-        <v>264</v>
-      </c>
-      <c r="D113" s="167"/>
+    <row r="113" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="157"/>
+      <c r="C113" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" s="50"/>
       <c r="E113" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F113" s="169"/>
-      <c r="G113" s="200" t="s">
-        <v>267</v>
-      </c>
-      <c r="H113" s="167"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="H113" s="50"/>
       <c r="I113" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
-      <c r="M113" s="53"/>
+      <c r="M113" s="199"/>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="131"/>
-      <c r="C114" s="201" t="s">
-        <v>259</v>
-      </c>
-      <c r="D114" s="167"/>
+    <row r="114" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="157"/>
+      <c r="C114" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="50"/>
       <c r="E114" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F114" s="169"/>
-      <c r="G114" s="200" t="s">
-        <v>232</v>
-      </c>
-      <c r="H114" s="167"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H114" s="50"/>
       <c r="I114" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
-      <c r="M114" s="53"/>
+      <c r="M114" s="199"/>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="131"/>
-      <c r="C115" s="201" t="s">
-        <v>260</v>
-      </c>
-      <c r="D115" s="167"/>
+    <row r="115" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="157"/>
+      <c r="C115" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" s="50"/>
       <c r="E115" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F115" s="169"/>
-      <c r="G115" s="200" t="s">
-        <v>233</v>
-      </c>
-      <c r="H115" s="167"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="H115" s="50"/>
       <c r="I115" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
-      <c r="M115" s="53"/>
+      <c r="M115" s="199"/>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="131"/>
-      <c r="C116" s="201" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" s="167"/>
+    <row r="116" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="157"/>
+      <c r="C116" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="50"/>
       <c r="E116" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F116" s="169"/>
-      <c r="G116" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="H116" s="121"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H116" s="50"/>
       <c r="I116" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
-      <c r="M116" s="54"/>
+      <c r="M116" s="199"/>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B117" s="130" t="s">
+    <row r="117" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="157"/>
+      <c r="C117" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F117" s="53"/>
+      <c r="G117" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="H117" s="60"/>
+      <c r="I117" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="200"/>
+      <c r="N117" s="20"/>
+    </row>
+    <row r="118" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="C117" s="80"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="173" t="s">
+      <c r="C118" s="61"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="G117" s="152" t="s">
+      <c r="G118" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H117" s="153"/>
-      <c r="I117" s="31" t="s">
+      <c r="H118" s="68"/>
+      <c r="I118" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J117" s="35" t="s">
+      <c r="J118" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="K117" s="35" t="s">
+      <c r="K118" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="L117" s="35"/>
-      <c r="M117" s="52"/>
-      <c r="N117" s="35"/>
-    </row>
-    <row r="118" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B118" s="131"/>
-      <c r="C118" s="116"/>
-      <c r="D118" s="117"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="174"/>
-      <c r="G118" s="161" t="s">
+      <c r="L118" s="35"/>
+      <c r="M118" s="198"/>
+      <c r="N118" s="35"/>
+    </row>
+    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B119" s="157"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="H118" s="56"/>
-      <c r="I118" s="36" t="s">
+      <c r="H119" s="57"/>
+      <c r="I119" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36" t="s">
+      <c r="J119" s="36"/>
+      <c r="K119" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="L118" s="36" t="s">
+      <c r="L119" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M118" s="53"/>
-      <c r="N118" s="36" t="s">
+      <c r="M119" s="199"/>
+      <c r="N119" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="131"/>
-      <c r="C119" s="133" t="s">
+    <row r="120" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="157"/>
+      <c r="C120" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="134"/>
-      <c r="E119" s="16" t="s">
+      <c r="D120" s="70"/>
+      <c r="E120" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F119" s="174"/>
-      <c r="G119" s="195" t="s">
+      <c r="F120" s="65"/>
+      <c r="G120" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="H119" s="134"/>
-      <c r="I119" s="16" t="s">
+      <c r="H120" s="70"/>
+      <c r="I120" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="16"/>
-    </row>
-    <row r="120" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="131"/>
-      <c r="C120" s="61" t="s">
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="199"/>
+      <c r="N120" s="16"/>
+    </row>
+    <row r="121" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="157"/>
+      <c r="C121" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="D120" s="62"/>
-      <c r="E120" s="17" t="s">
+      <c r="D121" s="72"/>
+      <c r="E121" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F120" s="174"/>
-      <c r="G120" s="63" t="s">
+      <c r="F121" s="65"/>
+      <c r="G121" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="H120" s="62"/>
-      <c r="I120" s="17" t="s">
+      <c r="H121" s="72"/>
+      <c r="I121" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="17"/>
-    </row>
-    <row r="121" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="131"/>
-      <c r="C121" s="90" t="s">
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="199"/>
+      <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="157"/>
+      <c r="C122" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D122" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E122" s="18">
         <v>256.49799999999999</v>
       </c>
-      <c r="F121" s="174"/>
-      <c r="G121" s="70" t="s">
+      <c r="F122" s="65"/>
+      <c r="G122" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="H121" s="71"/>
-      <c r="I121" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="53"/>
-      <c r="N121" s="18"/>
-    </row>
-    <row r="122" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="131"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F122" s="174"/>
-      <c r="G122" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="H122" s="71"/>
+      <c r="H122" s="77"/>
       <c r="I122" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
-      <c r="M122" s="53"/>
+      <c r="M122" s="199"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="131"/>
-      <c r="C123" s="72"/>
+    <row r="123" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="157"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F123" s="174"/>
-      <c r="G123" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="H123" s="71"/>
+        <v>89</v>
+      </c>
+      <c r="F123" s="65"/>
+      <c r="G123" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" s="77"/>
       <c r="I123" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
-      <c r="M123" s="53"/>
+      <c r="M123" s="199"/>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="131"/>
-      <c r="C124" s="72"/>
+    <row r="124" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="157"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E124" s="18">
-        <v>319460</v>
-      </c>
-      <c r="F124" s="174"/>
-      <c r="G124" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="H124" s="71"/>
+        <v>68</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F124" s="65"/>
+      <c r="G124" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H124" s="77"/>
       <c r="I124" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J124" s="18"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
-      <c r="M124" s="53"/>
+      <c r="M124" s="199"/>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="131"/>
-      <c r="C125" s="73"/>
+    <row r="125" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="157"/>
+      <c r="C125" s="74"/>
       <c r="D125" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" s="174"/>
-      <c r="G125" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="H125" s="71"/>
+        <v>42</v>
+      </c>
+      <c r="E125" s="18">
+        <v>319460</v>
+      </c>
+      <c r="F125" s="65"/>
+      <c r="G125" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="H125" s="77"/>
       <c r="I125" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J125" s="18"/>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
-      <c r="M125" s="53"/>
+      <c r="M125" s="199"/>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="131"/>
-      <c r="C126" s="72" t="s">
-        <v>73</v>
-      </c>
+    <row r="126" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="157"/>
+      <c r="C126" s="75"/>
       <c r="D126" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126" s="18">
-        <v>144.71</v>
-      </c>
-      <c r="F126" s="174"/>
-      <c r="G126" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="H126" s="71"/>
+        <v>69</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F126" s="65"/>
+      <c r="G126" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" s="77"/>
       <c r="I126" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
-      <c r="M126" s="53"/>
+      <c r="M126" s="199"/>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="131"/>
-      <c r="C127" s="72"/>
+    <row r="127" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="157"/>
+      <c r="C127" s="74" t="s">
+        <v>73</v>
+      </c>
       <c r="D127" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E127" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F127" s="174"/>
-      <c r="G127" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="H127" s="71"/>
+        <v>48</v>
+      </c>
+      <c r="E127" s="18">
+        <v>144.71</v>
+      </c>
+      <c r="F127" s="65"/>
+      <c r="G127" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="H127" s="77"/>
       <c r="I127" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
-      <c r="M127" s="53"/>
+      <c r="M127" s="199"/>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="131"/>
-      <c r="C128" s="72"/>
+    <row r="128" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="157"/>
+      <c r="C128" s="74"/>
       <c r="D128" s="19" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E128" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="174"/>
-      <c r="G128" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="H128" s="71"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="H128" s="77"/>
       <c r="I128" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
-      <c r="M128" s="53"/>
+      <c r="M128" s="199"/>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="131"/>
-      <c r="C129" s="72"/>
+    <row r="129" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="157"/>
+      <c r="C129" s="74"/>
       <c r="D129" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" s="18">
-        <v>47470</v>
-      </c>
-      <c r="F129" s="174"/>
-      <c r="G129" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="H129" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F129" s="65"/>
+      <c r="G129" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="H129" s="77"/>
       <c r="I129" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
-      <c r="M129" s="53"/>
+      <c r="M129" s="199"/>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="131"/>
-      <c r="C130" s="72"/>
+    <row r="130" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="157"/>
+      <c r="C130" s="74"/>
       <c r="D130" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F130" s="174"/>
-      <c r="G130" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="H130" s="71"/>
+        <v>41</v>
+      </c>
+      <c r="E130" s="18">
+        <v>47470</v>
+      </c>
+      <c r="F130" s="65"/>
+      <c r="G130" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="H130" s="77"/>
       <c r="I130" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
-      <c r="M130" s="53"/>
+      <c r="M130" s="199"/>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="131"/>
-      <c r="C131" s="72"/>
+    <row r="131" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="157"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="19" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="174"/>
-      <c r="G131" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="H131" s="71"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="H131" s="77"/>
       <c r="I131" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J131" s="18"/>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
-      <c r="M131" s="53"/>
+      <c r="M131" s="199"/>
       <c r="N131" s="18"/>
     </row>
-    <row r="132" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="131"/>
-      <c r="C132" s="72"/>
+    <row r="132" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="157"/>
+      <c r="C132" s="74"/>
       <c r="D132" s="19" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F132" s="174"/>
-      <c r="G132" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="H132" s="71"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" s="77"/>
       <c r="I132" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
-      <c r="M132" s="53"/>
+      <c r="M132" s="199"/>
       <c r="N132" s="18"/>
     </row>
-    <row r="133" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="131"/>
-      <c r="C133" s="73"/>
+    <row r="133" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="157"/>
+      <c r="C133" s="74"/>
       <c r="D133" s="19" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F133" s="174"/>
-      <c r="G133" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="H133" s="71"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H133" s="77"/>
       <c r="I133" s="18" t="s">
         <v>223</v>
       </c>
       <c r="J133" s="18"/>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
-      <c r="M133" s="53"/>
+      <c r="M133" s="199"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="131"/>
-      <c r="C134" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="62"/>
+    <row r="134" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="157"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E134" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F134" s="174"/>
-      <c r="G134" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="H134" s="62"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H134" s="77"/>
       <c r="I134" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J134" s="18"/>
       <c r="K134" s="18"/>
       <c r="L134" s="18"/>
-      <c r="M134" s="53"/>
+      <c r="M134" s="199"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="131"/>
-      <c r="C135" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="62"/>
-      <c r="E135" s="24">
-        <v>63800</v>
-      </c>
-      <c r="F135" s="174"/>
-      <c r="G135" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="H135" s="62"/>
+    <row r="135" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="157"/>
+      <c r="C135" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" s="72"/>
+      <c r="E135" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F135" s="65"/>
+      <c r="G135" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="H135" s="72"/>
       <c r="I135" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="J135" s="24"/>
-      <c r="K135" s="24"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="53"/>
-      <c r="N135" s="24"/>
-    </row>
-    <row r="136" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="131"/>
-      <c r="C136" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="62"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="199"/>
+      <c r="N135" s="18"/>
+    </row>
+    <row r="136" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="157"/>
+      <c r="C136" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="72"/>
       <c r="E136" s="24">
-        <v>23735</v>
-      </c>
-      <c r="F136" s="174"/>
-      <c r="G136" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H136" s="62"/>
+        <v>63800</v>
+      </c>
+      <c r="F136" s="65"/>
+      <c r="G136" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="H136" s="72"/>
       <c r="I136" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
       <c r="L136" s="24"/>
-      <c r="M136" s="53"/>
+      <c r="M136" s="199"/>
       <c r="N136" s="24"/>
     </row>
-    <row r="137" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="131"/>
-      <c r="C137" s="64" t="s">
+    <row r="137" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="157"/>
+      <c r="C137" s="151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="72"/>
+      <c r="E137" s="24">
+        <v>23735</v>
+      </c>
+      <c r="F137" s="65"/>
+      <c r="G137" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H137" s="72"/>
+      <c r="I137" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="199"/>
+      <c r="N137" s="24"/>
+    </row>
+    <row r="138" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="157"/>
+      <c r="C138" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D137" s="65"/>
-      <c r="E137" s="16" t="s">
+      <c r="D138" s="119"/>
+      <c r="E138" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F137" s="174"/>
-      <c r="G137" s="66" t="s">
+      <c r="F138" s="65"/>
+      <c r="G138" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="H137" s="65"/>
-      <c r="I137" s="16" t="s">
+      <c r="H138" s="119"/>
+      <c r="I138" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="53"/>
-      <c r="N137" s="16"/>
-    </row>
-    <row r="138" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="132"/>
-      <c r="C138" s="67" t="s">
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="199"/>
+      <c r="N138" s="16"/>
+    </row>
+    <row r="139" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="158"/>
+      <c r="C139" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="D138" s="68"/>
-      <c r="E138" s="17" t="s">
+      <c r="D139" s="121"/>
+      <c r="E139" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F138" s="175"/>
-      <c r="G138" s="69" t="s">
+      <c r="F139" s="66"/>
+      <c r="G139" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="H138" s="68"/>
-      <c r="I138" s="17" t="s">
+      <c r="H139" s="121"/>
+      <c r="I139" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="17"/>
-    </row>
-    <row r="139" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B139" s="125" t="s">
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="200"/>
+      <c r="N139" s="17"/>
+    </row>
+    <row r="140" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="80"/>
-      <c r="D139" s="81"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="168" t="s">
+      <c r="C140" s="61"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="G139" s="152" t="s">
+      <c r="G140" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="H139" s="153"/>
-      <c r="I139" s="31" t="s">
+      <c r="H140" s="68"/>
+      <c r="I140" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J139" s="35" t="s">
+      <c r="J140" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="K139" s="35" t="s">
+      <c r="K140" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="L139" s="35"/>
-      <c r="M139" s="52"/>
-      <c r="N139" s="35"/>
-    </row>
-    <row r="140" spans="2:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B140" s="126"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="117"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="169"/>
-      <c r="G140" s="161" t="s">
+      <c r="L140" s="35"/>
+      <c r="M140" s="198"/>
+      <c r="N140" s="35"/>
+    </row>
+    <row r="141" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" s="153"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H140" s="56"/>
-      <c r="I140" s="36" t="s">
+      <c r="H141" s="57"/>
+      <c r="I141" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36" t="s">
+      <c r="J141" s="36"/>
+      <c r="K141" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="L140" s="36" t="s">
+      <c r="L141" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="M140" s="53"/>
-      <c r="N140" s="36" t="s">
+      <c r="M141" s="199"/>
+      <c r="N141" s="36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="126"/>
-      <c r="C141" s="201" t="s">
+    <row r="142" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="153"/>
+      <c r="C142" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D141" s="167"/>
-      <c r="E141" s="38" t="s">
+      <c r="D142" s="50"/>
+      <c r="E142" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F141" s="169"/>
-      <c r="G141" s="166" t="s">
+      <c r="F142" s="53"/>
+      <c r="G142" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="H141" s="167"/>
-      <c r="I141" s="38" t="s">
+      <c r="H142" s="50"/>
+      <c r="I142" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="53"/>
-      <c r="N141" s="38"/>
-    </row>
-    <row r="142" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="126"/>
-      <c r="C142" s="120" t="s">
+      <c r="J142" s="38"/>
+      <c r="K142" s="38"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="199"/>
+      <c r="N142" s="38"/>
+    </row>
+    <row r="143" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="153"/>
+      <c r="C143" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D142" s="121"/>
-      <c r="E142" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F142" s="169"/>
-      <c r="G142" s="171" t="s">
-        <v>217</v>
-      </c>
-      <c r="H142" s="121"/>
-      <c r="I142" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="53"/>
-      <c r="N142" s="20"/>
-    </row>
-    <row r="143" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="126"/>
-      <c r="C143" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="121"/>
+      <c r="D143" s="60"/>
       <c r="E143" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F143" s="169"/>
-      <c r="G143" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="H143" s="121"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="H143" s="60"/>
       <c r="I143" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
       <c r="L143" s="20"/>
-      <c r="M143" s="53"/>
+      <c r="M143" s="199"/>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="126"/>
-      <c r="C144" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" s="121"/>
+    <row r="144" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="153"/>
+      <c r="C144" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="60"/>
       <c r="E144" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F144" s="169"/>
-      <c r="G144" s="171" t="s">
-        <v>218</v>
-      </c>
-      <c r="H144" s="121"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="60"/>
       <c r="I144" s="20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J144" s="20"/>
       <c r="K144" s="20"/>
       <c r="L144" s="20"/>
-      <c r="M144" s="53"/>
+      <c r="M144" s="199"/>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="127"/>
-      <c r="C145" s="128" t="s">
+    <row r="145" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="153"/>
+      <c r="C145" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="60"/>
+      <c r="E145" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="53"/>
+      <c r="G145" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="H145" s="60"/>
+      <c r="I145" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="199"/>
+      <c r="N145" s="20"/>
+    </row>
+    <row r="146" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="154"/>
+      <c r="C146" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D145" s="129"/>
-      <c r="E145" s="21" t="s">
+      <c r="D146" s="117"/>
+      <c r="E146" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F145" s="170"/>
-      <c r="G145" s="172" t="s">
+      <c r="F146" s="115"/>
+      <c r="G146" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="H145" s="129"/>
-      <c r="I145" s="21" t="s">
+      <c r="H146" s="117"/>
+      <c r="I146" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="200"/>
+      <c r="N146" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F108:F116"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="C140:D140"/>
+  <mergeCells count="269">
+    <mergeCell ref="M140:M146"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M3:M19"/>
+    <mergeCell ref="M20:M33"/>
+    <mergeCell ref="M34:M43"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="M50:M84"/>
+    <mergeCell ref="M85:M108"/>
+    <mergeCell ref="M109:M117"/>
+    <mergeCell ref="M118:M139"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B84"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="C127:C134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C58:C69"/>
+    <mergeCell ref="C70:C82"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="B85:B108"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B118:B139"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="F50:F84"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="F140:F146"/>
     <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="F117:F138"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="F85:F108"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="F3:F19"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="F34:F43"/>
     <mergeCell ref="G37:H37"/>
@@ -6011,186 +6112,77 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="F139:F145"/>
-    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
     <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="F84:F107"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="F50:F83"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B84:B107"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="B139:B145"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B117:B138"/>
+    <mergeCell ref="G111:H111"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B108:B116"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="F118:F139"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="C140:D140"/>
     <mergeCell ref="G128:H128"/>
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="G130:H130"/>
     <mergeCell ref="G131:H131"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C57:C68"/>
-    <mergeCell ref="C69:C81"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B83"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C126:C133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C94:C102"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="M139:M145"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="M3:M19"/>
-    <mergeCell ref="M20:M33"/>
-    <mergeCell ref="M34:M43"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="M50:M83"/>
-    <mergeCell ref="M84:M107"/>
-    <mergeCell ref="M108:M116"/>
-    <mergeCell ref="M117:M138"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="F109:F117"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G139:H139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
